--- a/Tijd diagram sprint 3 .xlsx
+++ b/Tijd diagram sprint 3 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Beeren\Documents\GitHub\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596CEDF7-2BE7-4862-9752-A5D35E7509F2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0515E6AF-B4D9-441E-BB87-A7B99CF8C768}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{ED121A58-3D00-4357-8DE2-C1E001567F3D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>BacklogItem</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>Daily standups</t>
+  </si>
+  <si>
+    <t>UREN INDELING SPRINT 3</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -592,11 +595,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2078,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EA0DA6-8752-44E6-9604-3DF87F38EE9D}">
   <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C92" zoomScale="78" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="78" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4563,13 +4567,15 @@
       <c r="P88" s="27"/>
       <c r="Q88" s="27"/>
       <c r="R88" s="28"/>
-      <c r="S88" s="48"/>
+      <c r="S88" s="47"/>
       <c r="T88" s="6"/>
       <c r="U88" s="4"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="43"/>
+      <c r="B89" s="43" t="s">
+        <v>87</v>
+      </c>
       <c r="C89" s="18"/>
       <c r="D89" s="6"/>
       <c r="E89" s="36" t="s">
@@ -4768,7 +4774,7 @@
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
-      <c r="J99" s="49"/>
+      <c r="J99" s="48"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
@@ -4787,10 +4793,10 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="F101" s="7"/>
-      <c r="G101" s="47">
+      <c r="G101" s="49">
         <v>1</v>
       </c>
-      <c r="H101" s="45">
+      <c r="H101" s="50">
         <v>280</v>
       </c>
       <c r="I101" s="45"/>
@@ -4815,7 +4821,7 @@
         <v>80</v>
       </c>
       <c r="H103">
-        <f>SUM(H102-35)</f>
+        <f t="shared" ref="H103:H109" si="2">SUM(H102-35)</f>
         <v>210</v>
       </c>
       <c r="J103" s="7"/>
@@ -4827,7 +4833,7 @@
         <v>81</v>
       </c>
       <c r="H104">
-        <f>SUM(H103-35)</f>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="J104" s="7"/>
@@ -4838,7 +4844,7 @@
         <v>82</v>
       </c>
       <c r="H105">
-        <f>SUM(H104-35)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="J105" s="7"/>
@@ -4849,7 +4855,7 @@
         <v>83</v>
       </c>
       <c r="H106">
-        <f>SUM(H105-35)</f>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="J106" s="7"/>
@@ -4860,7 +4866,7 @@
         <v>84</v>
       </c>
       <c r="H107">
-        <f>SUM(H106-35)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="J107" s="7"/>
@@ -4871,7 +4877,7 @@
         <v>85</v>
       </c>
       <c r="H108">
-        <f>SUM(H107-35)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="J108" s="7"/>
@@ -4880,7 +4886,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="46"/>
       <c r="H109">
-        <f>SUM(H108-35)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J109" s="7"/>

--- a/Tijd diagram sprint 3 .xlsx
+++ b/Tijd diagram sprint 3 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Beeren\Documents\GitHub\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0515E6AF-B4D9-441E-BB87-A7B99CF8C768}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5C5708-20A0-4E5B-A0E6-505B210ED83B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{ED121A58-3D00-4357-8DE2-C1E001567F3D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t>BacklogItem</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>UREN INDELING SPRINT 3</t>
+  </si>
+  <si>
+    <t>Gewerkte dag</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>Ontwerp profielpagina</t>
   </si>
 </sst>
 </file>
@@ -351,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -500,12 +509,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -538,7 +597,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -549,10 +607,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,12 +651,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -640,11 +712,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -654,13 +726,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL"/>
-              <a:t>Burn</a:t>
+              <a:t>Burndown Chart</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="nl-NL" baseline="0"/>
-              <a:t>down Chart</a:t>
-            </a:r>
-            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -677,11 +744,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -761,7 +828,7 @@
             <c:numRef>
               <c:f>Blad1!$H$101:$H$109</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>280</c:v>
@@ -800,6 +867,22 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="429324840"/>
+        <c:axId val="429323856"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -809,7 +892,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gewerkt</c:v>
+                  <c:v>Over</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -862,8 +945,11 @@
             <c:numRef>
               <c:f>Blad1!$I$101:$I$109</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>270</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -882,25 +968,39 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="432768840"/>
-        <c:axId val="432765888"/>
+        <c:axId val="429322544"/>
+        <c:axId val="429322216"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="432768840"/>
+      <c:valAx>
+        <c:axId val="429323856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -914,127 +1014,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-NL"/>
-                  <a:t>Dagen</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-NL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="432765888"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="432765888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Uren</a:t>
+                  <a:t>UREN</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1052,7 +1032,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1068,7 +1048,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1099,10 +1079,228 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432768840"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="429324840"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:catAx>
+        <c:axId val="429324840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>DAGEN</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429323856"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="429322216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>UREN</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429322544"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="429322544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="429322216"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1227,7 +1425,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1238,7 +1436,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1251,11 +1449,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1268,7 +1466,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1284,7 +1482,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1328,42 +1526,70 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -1375,36 +1601,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1426,15 +1645,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1453,13 +1670,14 @@
           <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1468,10 +1686,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1487,14 +1705,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1506,31 +1724,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -1539,17 +1750,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1558,14 +1768,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1577,17 +1787,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1608,7 +1817,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1616,7 +1825,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1636,10 +1845,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1656,11 +1865,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1669,14 +1878,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1706,8 +1914,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1730,14 +1938,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1747,15 +1949,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>16105</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>31381</xdr:rowOff>
+      <xdr:colOff>1325181</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>41150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1698855</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>183135</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>97692</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2080,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EA0DA6-8752-44E6-9604-3DF87F38EE9D}">
-  <dimension ref="A1:U112"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="78" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="66" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2094,14 +2296,16 @@
     <col min="4" max="4" width="59.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.33203125" customWidth="1"/>
     <col min="12" max="12" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.77734375" customWidth="1"/>
     <col min="19" max="19" width="4.33203125" customWidth="1"/>
-    <col min="20" max="20" width="26.88671875" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="15" t="s">
         <v>0</v>
@@ -2110,7 +2314,7 @@
       <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="14" t="s">
@@ -2129,7 +2333,9 @@
         <v>6</v>
       </c>
       <c r="K1" s="17"/>
-      <c r="L1" s="3"/>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="M1" s="14" t="s">
         <v>2</v>
       </c>
@@ -2145,23 +2351,26 @@
       <c r="Q1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="23"/>
+      <c r="R1" s="22"/>
       <c r="S1" s="17"/>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="U1" s="10"/>
-    </row>
-    <row r="2" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V1" s="10"/>
+    </row>
+    <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="35">
         <v>4</v>
       </c>
       <c r="F2" s="11"/>
@@ -2170,27 +2379,32 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="24"/>
+      <c r="L2" s="23"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="20">
+      <c r="R2" s="46"/>
+      <c r="S2" s="47">
         <f>COUNTA(F2:Q2)</f>
         <v>0</v>
       </c>
-      <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T2" s="23"/>
+      <c r="U2" s="12">
+        <f>SUM(F2:J2,M2:Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="33"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="7"/>
       <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="35">
         <v>2</v>
       </c>
       <c r="F3" s="11"/>
@@ -2199,27 +2413,32 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="24"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="10">
+      <c r="R3" s="46"/>
+      <c r="S3" s="48">
         <f>COUNTA(F3:Q3)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T3" s="23"/>
+      <c r="U3" s="12">
+        <f>SUM(F3:J3,M3:Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="33"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="7"/>
       <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="35">
         <v>4</v>
       </c>
       <c r="F4" s="11"/>
@@ -2228,56 +2447,70 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="24"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="10">
+      <c r="R4" s="46"/>
+      <c r="S4" s="48">
         <f>COUNTA(F4:Q4)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="7"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T4" s="23"/>
+      <c r="U4" s="12">
+        <f t="shared" ref="U4:U67" si="0">SUM(F4:J4,M4:Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="33"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="7"/>
       <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="35">
         <v>1</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="J5" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="24"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="10">
+      <c r="R5" s="46"/>
+      <c r="S5" s="48">
         <f>COUNTA(F5:Q5)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="23">
+        <v>1</v>
+      </c>
+      <c r="U5" s="12">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="33"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="35">
         <v>1</v>
       </c>
       <c r="F6" s="11"/>
@@ -2286,27 +2519,32 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="24"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="20">
-        <f t="shared" ref="S6:S69" si="0">COUNTA(F6:Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R6" s="46"/>
+      <c r="S6" s="48">
+        <f t="shared" ref="S6:S69" si="1">COUNTA(F6:Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="23"/>
+      <c r="U6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="33"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="35">
         <v>1</v>
       </c>
       <c r="F7" s="11"/>
@@ -2315,27 +2553,32 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="24"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R7" s="46"/>
+      <c r="S7" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="23"/>
+      <c r="U7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
-      <c r="B8" s="33"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="35">
         <v>2</v>
       </c>
       <c r="F8" s="11"/>
@@ -2344,27 +2587,32 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="24"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="46"/>
+      <c r="S8" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="23"/>
+      <c r="U8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="33"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="35">
         <v>2</v>
       </c>
       <c r="F9" s="11"/>
@@ -2373,104 +2621,124 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="24"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R9" s="46"/>
+      <c r="S9" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="23"/>
+      <c r="U9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
-      <c r="B10" s="33"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="38"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="24"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R10" s="46"/>
+      <c r="S10" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="23"/>
+      <c r="U10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="33"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="38"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="24"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R11" s="46"/>
+      <c r="S11" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="23"/>
+      <c r="U11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
-      <c r="B12" s="33"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="38"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="24"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="46"/>
+      <c r="S12" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="23"/>
+      <c r="U12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="35">
         <v>4</v>
       </c>
       <c r="F13" s="11"/>
@@ -2479,27 +2747,32 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="24"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="46"/>
+      <c r="S13" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="23"/>
+      <c r="U13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
-      <c r="B14" s="33"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="35">
         <v>4</v>
       </c>
       <c r="F14" s="11"/>
@@ -2508,27 +2781,32 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="24"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R14" s="46"/>
+      <c r="S14" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="23"/>
+      <c r="U14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
-      <c r="B15" s="33"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="35">
         <v>3</v>
       </c>
       <c r="F15" s="11"/>
@@ -2537,27 +2815,32 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="24"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R15" s="46"/>
+      <c r="S15" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="23"/>
+      <c r="U15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
-      <c r="B16" s="33"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="35">
         <v>2</v>
       </c>
       <c r="F16" s="11"/>
@@ -2566,154 +2849,184 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="24"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R16" s="46"/>
+      <c r="S16" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="23"/>
+      <c r="U16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
-      <c r="B17" s="33"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="38"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="24"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R17" s="46"/>
+      <c r="S17" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="23"/>
+      <c r="U17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" s="33"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="38"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="24"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="7"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R18" s="46"/>
+      <c r="S18" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="23"/>
+      <c r="U18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="7"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="33"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="38"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="24"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="7"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R19" s="46"/>
+      <c r="S19" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="23"/>
+      <c r="U19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="7"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
-      <c r="B20" s="33"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="38"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="24"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="7"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R20" s="46"/>
+      <c r="S20" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="23"/>
+      <c r="U20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="7"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="33"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="38"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="24"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="7"/>
-    </row>
-    <row r="22" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R21" s="46"/>
+      <c r="S21" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="23"/>
+      <c r="U21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="7"/>
+    </row>
+    <row r="22" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="30" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="35">
         <v>2</v>
       </c>
       <c r="F22" s="11"/>
@@ -2722,27 +3035,32 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="24"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="7"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R22" s="46"/>
+      <c r="S22" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="23"/>
+      <c r="U22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="7"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="33"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="35">
         <v>2</v>
       </c>
       <c r="F23" s="11"/>
@@ -2751,27 +3069,32 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="24"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="7"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R23" s="46"/>
+      <c r="S23" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="23"/>
+      <c r="U23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="7"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="33"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="35">
         <v>1</v>
       </c>
       <c r="F24" s="11"/>
@@ -2780,27 +3103,32 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="24"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="7"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R24" s="46"/>
+      <c r="S24" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="23"/>
+      <c r="U24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="7"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="33"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="35">
         <v>1</v>
       </c>
       <c r="F25" s="11"/>
@@ -2809,133 +3137,162 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="24"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="7"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R25" s="46"/>
+      <c r="S25" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="23"/>
+      <c r="U25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="7"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
-      <c r="B26" s="33"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="38"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="24"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="7"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R26" s="46"/>
+      <c r="S26" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="23"/>
+      <c r="U26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="7"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
-      <c r="B27" s="33"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="38"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="24"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="7"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R27" s="46"/>
+      <c r="S27" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="23"/>
+      <c r="U27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="7"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="33"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="38"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="24"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="7"/>
-    </row>
-    <row r="29" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R28" s="46"/>
+      <c r="S28" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="23"/>
+      <c r="U28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="7"/>
+    </row>
+    <row r="29" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="35">
         <v>2</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="J29" s="11"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="24"/>
+      <c r="L29" s="23"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="7"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R29" s="46"/>
+      <c r="S29" s="48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T29" s="23">
+        <v>1</v>
+      </c>
+      <c r="U29" s="12">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="V29" s="7"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
-      <c r="B30" s="33"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="35">
         <v>2</v>
       </c>
       <c r="F30" s="11"/>
@@ -2944,27 +3301,32 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="24"/>
+      <c r="L30" s="23"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="7"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R30" s="46"/>
+      <c r="S30" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="23"/>
+      <c r="U30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="7"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="B31" s="33"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="35">
         <v>2</v>
       </c>
       <c r="F31" s="11"/>
@@ -2973,27 +3335,32 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="24"/>
+      <c r="L31" s="23"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="7"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R31" s="46"/>
+      <c r="S31" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="23"/>
+      <c r="U31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="7"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="B32" s="33"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="35">
         <v>2</v>
       </c>
       <c r="F32" s="11"/>
@@ -3002,27 +3369,32 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="24"/>
+      <c r="L32" s="23"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="7"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R32" s="46"/>
+      <c r="S32" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="23"/>
+      <c r="U32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="7"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="B33" s="33"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="35">
         <v>1</v>
       </c>
       <c r="F33" s="11"/>
@@ -3031,129 +3403,154 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="24"/>
+      <c r="L33" s="23"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="7"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R33" s="46"/>
+      <c r="S33" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="23"/>
+      <c r="U33" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="7"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
-      <c r="B34" s="33"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="7"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="38"/>
+      <c r="E34" s="35"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="24"/>
+      <c r="L34" s="23"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="7"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R34" s="46"/>
+      <c r="S34" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="23"/>
+      <c r="U34" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="7"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
-      <c r="B35" s="33"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="7"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="38"/>
+      <c r="E35" s="35"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="24"/>
+      <c r="L35" s="23"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="7"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R35" s="46"/>
+      <c r="S35" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="23"/>
+      <c r="U35" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="7"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
-      <c r="B36" s="33"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="7"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="38"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="24"/>
+      <c r="L36" s="23"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="7"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R36" s="46"/>
+      <c r="S36" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="23"/>
+      <c r="U36" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="7"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
-      <c r="B37" s="33"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="7"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="38"/>
+      <c r="E37" s="35"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="24"/>
+      <c r="L37" s="23"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="7"/>
-    </row>
-    <row r="38" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R37" s="46"/>
+      <c r="S37" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="23"/>
+      <c r="U37" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="7"/>
+    </row>
+    <row r="38" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="35">
         <v>2</v>
       </c>
       <c r="F38" s="11"/>
@@ -3162,27 +3559,32 @@
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="24"/>
+      <c r="L38" s="23"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="7"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R38" s="46"/>
+      <c r="S38" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="23"/>
+      <c r="U38" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="7"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
-      <c r="B39" s="33"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="7"/>
       <c r="D39" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="35">
         <v>4</v>
       </c>
       <c r="F39" s="11"/>
@@ -3191,27 +3593,32 @@
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="24"/>
+      <c r="L39" s="23"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="7"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R39" s="46"/>
+      <c r="S39" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="23"/>
+      <c r="U39" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="7"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="33"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="7"/>
       <c r="D40" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="35">
         <v>3</v>
       </c>
       <c r="F40" s="11"/>
@@ -3220,208 +3627,252 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="24"/>
+      <c r="L40" s="23"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="7"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R40" s="46"/>
+      <c r="S40" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="23"/>
+      <c r="U40" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="7"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
-      <c r="B41" s="33"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="7"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="38"/>
+      <c r="E41" s="35"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="7"/>
-      <c r="L41" s="24"/>
+      <c r="L41" s="23"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="7"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R41" s="46"/>
+      <c r="S41" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="23"/>
+      <c r="U41" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="7"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
-      <c r="B42" s="33"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="7"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="38"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="7"/>
-      <c r="L42" s="24"/>
+      <c r="L42" s="23"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="7"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R42" s="46"/>
+      <c r="S42" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="23"/>
+      <c r="U42" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="7"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" s="33"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="7"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="38"/>
+      <c r="E43" s="35"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="7"/>
-      <c r="L43" s="24"/>
+      <c r="L43" s="23"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="7"/>
-    </row>
-    <row r="44" spans="1:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R43" s="46"/>
+      <c r="S43" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="23"/>
+      <c r="U43" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="7"/>
+    </row>
+    <row r="44" spans="1:22" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
-      <c r="B44" s="33"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="7"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="39"/>
+      <c r="E44" s="36"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="7"/>
-      <c r="L44" s="24"/>
+      <c r="L44" s="23"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="7"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R44" s="46"/>
+      <c r="S44" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="23"/>
+      <c r="U44" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="7"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
-      <c r="B45" s="33"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="7"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="38"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="24"/>
+      <c r="L45" s="23"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U45" s="7"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R45" s="46"/>
+      <c r="S45" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="23"/>
+      <c r="U45" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="7"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
-      <c r="B46" s="33"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="7"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="38"/>
+      <c r="E46" s="35"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="7"/>
-      <c r="L46" s="24"/>
+      <c r="L46" s="23"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="7"/>
-    </row>
-    <row r="47" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R46" s="46"/>
+      <c r="S46" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="23"/>
+      <c r="U46" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="7"/>
+    </row>
+    <row r="47" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="35">
         <v>2</v>
       </c>
-      <c r="F47" s="11"/>
+      <c r="F47" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="24"/>
+      <c r="L47" s="23"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="7"/>
-    </row>
-    <row r="48" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R47" s="46"/>
+      <c r="S47" s="48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T47" s="23">
+        <v>1</v>
+      </c>
+      <c r="U47" s="12">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="V47" s="7"/>
+    </row>
+    <row r="48" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="33"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="7"/>
       <c r="D48" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="35">
         <v>4</v>
       </c>
       <c r="F48" s="11"/>
@@ -3430,27 +3881,32 @@
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="24"/>
+      <c r="L48" s="23"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="7"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R48" s="46"/>
+      <c r="S48" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="23"/>
+      <c r="U48" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="7"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
-      <c r="B49" s="33"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="7"/>
       <c r="D49" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49" s="35">
         <v>3</v>
       </c>
       <c r="F49" s="11"/>
@@ -3459,27 +3915,32 @@
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="24"/>
+      <c r="L49" s="23"/>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="7"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R49" s="46"/>
+      <c r="S49" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="23"/>
+      <c r="U49" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="7"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
-      <c r="B50" s="33"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="7"/>
       <c r="D50" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="38">
+      <c r="E50" s="35">
         <v>3</v>
       </c>
       <c r="F50" s="11"/>
@@ -3488,104 +3949,132 @@
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="7"/>
-      <c r="L50" s="24"/>
+      <c r="L50" s="23"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="7"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R50" s="46"/>
+      <c r="S50" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="23"/>
+      <c r="U50" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="7"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
-      <c r="B51" s="33"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="38"/>
+      <c r="D51" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="35">
+        <v>3</v>
+      </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="H51" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="7"/>
-      <c r="L51" s="24"/>
+      <c r="L51" s="23"/>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="7"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R51" s="46"/>
+      <c r="S51" s="48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T51" s="23">
+        <v>1</v>
+      </c>
+      <c r="U51" s="12">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="V51" s="7"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
-      <c r="B52" s="33"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="7"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="38"/>
+      <c r="E52" s="35"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="7"/>
-      <c r="L52" s="24"/>
+      <c r="L52" s="23"/>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U52" s="7"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R52" s="46"/>
+      <c r="S52" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="23"/>
+      <c r="U52" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="7"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
-      <c r="B53" s="33"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="7"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="38"/>
+      <c r="E53" s="35"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="7"/>
-      <c r="L53" s="24"/>
+      <c r="L53" s="23"/>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="7"/>
-    </row>
-    <row r="54" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="R53" s="46"/>
+      <c r="S53" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="23"/>
+      <c r="U53" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="7"/>
+    </row>
+    <row r="54" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="30" t="s">
         <v>39</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54" s="35">
         <v>2</v>
       </c>
       <c r="F54" s="11"/>
@@ -3594,27 +4083,32 @@
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="7"/>
-      <c r="L54" s="24"/>
+      <c r="L54" s="23"/>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="7"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R54" s="46"/>
+      <c r="S54" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="23"/>
+      <c r="U54" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="7"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
-      <c r="B55" s="33"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="7"/>
       <c r="D55" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E55" s="35">
         <v>2</v>
       </c>
       <c r="F55" s="11"/>
@@ -3623,104 +4117,124 @@
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="7"/>
-      <c r="L55" s="24"/>
+      <c r="L55" s="23"/>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U55" s="7"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R55" s="46"/>
+      <c r="S55" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="23"/>
+      <c r="U55" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="7"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="33"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="7"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="38"/>
+      <c r="E56" s="35"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="24"/>
+      <c r="L56" s="23"/>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U56" s="7"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R56" s="46"/>
+      <c r="S56" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="23"/>
+      <c r="U56" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="7"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="33"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="7"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="38"/>
+      <c r="E57" s="35"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="7"/>
-      <c r="L57" s="24"/>
+      <c r="L57" s="23"/>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="7"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R57" s="46"/>
+      <c r="S57" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="23"/>
+      <c r="U57" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="7"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="B58" s="33"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="7"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="38"/>
+      <c r="E58" s="35"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="7"/>
-      <c r="L58" s="24"/>
+      <c r="L58" s="23"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U58" s="7"/>
-    </row>
-    <row r="59" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="R58" s="46"/>
+      <c r="S58" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="23"/>
+      <c r="U58" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="7"/>
+    </row>
+    <row r="59" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="30" t="s">
         <v>40</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="38">
+      <c r="E59" s="35">
         <v>1</v>
       </c>
       <c r="F59" s="11"/>
@@ -3729,27 +4243,32 @@
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="7"/>
-      <c r="L59" s="24"/>
+      <c r="L59" s="23"/>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U59" s="7"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R59" s="46"/>
+      <c r="S59" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="23"/>
+      <c r="U59" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="7"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
-      <c r="B60" s="33"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="7"/>
       <c r="D60" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="38">
+      <c r="E60" s="35">
         <v>3</v>
       </c>
       <c r="F60" s="11"/>
@@ -3758,104 +4277,124 @@
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="7"/>
-      <c r="L60" s="24"/>
+      <c r="L60" s="23"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U60" s="7"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R60" s="46"/>
+      <c r="S60" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="23"/>
+      <c r="U60" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="7"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
-      <c r="B61" s="33"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="7"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="38"/>
+      <c r="E61" s="35"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="7"/>
-      <c r="L61" s="24"/>
+      <c r="L61" s="23"/>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
       <c r="O61" s="12"/>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U61" s="7"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R61" s="46"/>
+      <c r="S61" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="23"/>
+      <c r="U61" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="7"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
-      <c r="B62" s="33"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="7"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="38"/>
+      <c r="E62" s="35"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="24"/>
+      <c r="L62" s="23"/>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
       <c r="O62" s="12"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
-      <c r="R62" s="25"/>
-      <c r="S62" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U62" s="7"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R62" s="46"/>
+      <c r="S62" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T62" s="23"/>
+      <c r="U62" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V62" s="7"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
-      <c r="B63" s="33"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="7"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="38"/>
+      <c r="E63" s="35"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="7"/>
-      <c r="L63" s="24"/>
+      <c r="L63" s="23"/>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
       <c r="O63" s="12"/>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
-      <c r="R63" s="25"/>
-      <c r="S63" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U63" s="7"/>
-    </row>
-    <row r="64" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R63" s="46"/>
+      <c r="S63" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="23"/>
+      <c r="U63" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="7"/>
+    </row>
+    <row r="64" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="30" t="s">
         <v>42</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E64" s="38">
+      <c r="E64" s="35">
         <v>2</v>
       </c>
       <c r="F64" s="11"/>
@@ -3864,27 +4403,32 @@
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="7"/>
-      <c r="L64" s="24"/>
+      <c r="L64" s="23"/>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
-      <c r="R64" s="25"/>
-      <c r="S64" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U64" s="7"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R64" s="46"/>
+      <c r="S64" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="23"/>
+      <c r="U64" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="7"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
-      <c r="B65" s="33"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="7"/>
       <c r="D65" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E65" s="38">
+      <c r="E65" s="35">
         <v>2</v>
       </c>
       <c r="F65" s="11"/>
@@ -3893,27 +4437,32 @@
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="7"/>
-      <c r="L65" s="24"/>
+      <c r="L65" s="23"/>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
       <c r="O65" s="12"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
-      <c r="R65" s="25"/>
-      <c r="S65" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="7"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R65" s="46"/>
+      <c r="S65" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="23"/>
+      <c r="U65" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="7"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
-      <c r="B66" s="33"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="7"/>
       <c r="D66" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E66" s="38">
+      <c r="E66" s="35">
         <v>2</v>
       </c>
       <c r="F66" s="11"/>
@@ -3922,129 +4471,154 @@
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="7"/>
-      <c r="L66" s="24"/>
+      <c r="L66" s="23"/>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
-      <c r="R66" s="25"/>
-      <c r="S66" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U66" s="7"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R66" s="46"/>
+      <c r="S66" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="23"/>
+      <c r="U66" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="7"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
-      <c r="B67" s="33"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="7"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="38"/>
+      <c r="E67" s="35"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="7"/>
-      <c r="L67" s="24"/>
+      <c r="L67" s="23"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
-      <c r="R67" s="25"/>
-      <c r="S67" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U67" s="7"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R67" s="46"/>
+      <c r="S67" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="23"/>
+      <c r="U67" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V67" s="7"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
-      <c r="B68" s="33"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="7"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="38"/>
+      <c r="E68" s="35"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="K68" s="7"/>
-      <c r="L68" s="24"/>
+      <c r="L68" s="23"/>
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
-      <c r="R68" s="25"/>
-      <c r="S68" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U68" s="7"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R68" s="46"/>
+      <c r="S68" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T68" s="23"/>
+      <c r="U68" s="12">
+        <f t="shared" ref="U68:U85" si="2">SUM(F68:J68,M68:Q68)</f>
+        <v>0</v>
+      </c>
+      <c r="V68" s="7"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
-      <c r="B69" s="33"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="7"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="38"/>
+      <c r="E69" s="35"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="7"/>
-      <c r="L69" s="24"/>
+      <c r="L69" s="23"/>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
-      <c r="R69" s="25"/>
-      <c r="S69" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="7"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R69" s="46"/>
+      <c r="S69" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="23"/>
+      <c r="U69" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="7"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
-      <c r="B70" s="33"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="7"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="38"/>
+      <c r="E70" s="35"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="7"/>
-      <c r="L70" s="24"/>
+      <c r="L70" s="23"/>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
       <c r="O70" s="12"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="12"/>
-      <c r="R70" s="25"/>
-      <c r="S70" s="20">
-        <f t="shared" ref="S70:S84" si="1">COUNTA(F70:Q70)</f>
-        <v>0</v>
-      </c>
-      <c r="U70" s="7"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R70" s="46"/>
+      <c r="S70" s="48">
+        <f t="shared" ref="S70:S85" si="3">COUNTA(F70:Q70)</f>
+        <v>0</v>
+      </c>
+      <c r="T70" s="23"/>
+      <c r="U70" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="7"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E71" s="35">
         <v>3</v>
       </c>
       <c r="F71" s="11"/>
@@ -4053,56 +4627,70 @@
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="7"/>
-      <c r="L71" s="24"/>
+      <c r="L71" s="23"/>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
-      <c r="R71" s="25"/>
-      <c r="S71" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U71" s="7"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R71" s="46"/>
+      <c r="S71" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T71" s="23"/>
+      <c r="U71" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="7"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
-      <c r="B72" s="33"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="7"/>
       <c r="D72" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E72" s="38">
+      <c r="E72" s="35">
         <v>4</v>
       </c>
       <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
+      <c r="G72" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="7"/>
-      <c r="L72" s="24"/>
+      <c r="L72" s="23"/>
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
       <c r="O72" s="12"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
-      <c r="R72" s="25"/>
-      <c r="S72" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U72" s="7"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R72" s="46"/>
+      <c r="S72" s="48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T72" s="23">
+        <v>1</v>
+      </c>
+      <c r="U72" s="12">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="V72" s="7"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
-      <c r="B73" s="33"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="7"/>
       <c r="D73" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E73" s="38">
+      <c r="E73" s="35">
         <v>3</v>
       </c>
       <c r="F73" s="11"/>
@@ -4111,104 +4699,124 @@
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="7"/>
-      <c r="L73" s="24"/>
+      <c r="L73" s="23"/>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
       <c r="O73" s="12"/>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
-      <c r="R73" s="25"/>
-      <c r="S73" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U73" s="7"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R73" s="46"/>
+      <c r="S73" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="23"/>
+      <c r="U73" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="7"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="1"/>
       <c r="C74" s="7"/>
       <c r="D74" s="9"/>
-      <c r="E74" s="38"/>
+      <c r="E74" s="35"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="7"/>
-      <c r="L74" s="24"/>
+      <c r="L74" s="23"/>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
       <c r="O74" s="12"/>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
-      <c r="R74" s="25"/>
-      <c r="S74" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U74" s="7"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R74" s="46"/>
+      <c r="S74" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="23"/>
+      <c r="U74" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="7"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="1"/>
       <c r="C75" s="7"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="38"/>
+      <c r="E75" s="35"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="24"/>
+      <c r="L75" s="23"/>
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
       <c r="O75" s="12"/>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
-      <c r="R75" s="25"/>
-      <c r="S75" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U75" s="7"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R75" s="46"/>
+      <c r="S75" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="23"/>
+      <c r="U75" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="7"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="1"/>
       <c r="C76" s="7"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="38"/>
+      <c r="E76" s="35"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="24"/>
+      <c r="L76" s="23"/>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
       <c r="O76" s="12"/>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
-      <c r="R76" s="25"/>
-      <c r="S76" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U76" s="7"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R76" s="46"/>
+      <c r="S76" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="23"/>
+      <c r="U76" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="7"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="30" t="s">
         <v>62</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E77" s="38">
+      <c r="E77" s="35">
         <v>8</v>
       </c>
       <c r="F77" s="11"/>
@@ -4217,27 +4825,32 @@
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="24"/>
+      <c r="L77" s="23"/>
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
       <c r="O77" s="12"/>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
-      <c r="R77" s="25"/>
-      <c r="S77" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="7"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R77" s="46"/>
+      <c r="S77" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="23"/>
+      <c r="U77" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="7"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="1"/>
       <c r="C78" s="7"/>
       <c r="D78" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E78" s="38">
+      <c r="E78" s="35">
         <v>8</v>
       </c>
       <c r="F78" s="11"/>
@@ -4246,27 +4859,32 @@
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="K78" s="7"/>
-      <c r="L78" s="24"/>
+      <c r="L78" s="23"/>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
       <c r="O78" s="12"/>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
-      <c r="R78" s="25"/>
-      <c r="S78" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U78" s="7"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R78" s="46"/>
+      <c r="S78" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="23"/>
+      <c r="U78" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="7"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="1"/>
       <c r="C79" s="7"/>
       <c r="D79" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E79" s="38">
+      <c r="E79" s="35">
         <v>4</v>
       </c>
       <c r="F79" s="11">
@@ -4277,27 +4895,34 @@
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="K79" s="7"/>
-      <c r="L79" s="24"/>
+      <c r="L79" s="23"/>
       <c r="M79" s="12"/>
       <c r="N79" s="12"/>
       <c r="O79" s="12"/>
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
-      <c r="R79" s="25"/>
-      <c r="S79" s="10">
-        <f t="shared" si="1"/>
+      <c r="R79" s="46"/>
+      <c r="S79" s="48">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U79" s="7"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T79" s="23">
+        <v>1</v>
+      </c>
+      <c r="U79" s="12">
+        <f t="shared" si="2"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="V79" s="7"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="1"/>
       <c r="C80" s="7"/>
       <c r="D80" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E80" s="38">
+      <c r="E80" s="35">
         <v>4</v>
       </c>
       <c r="F80" s="11"/>
@@ -4306,27 +4931,32 @@
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
       <c r="K80" s="7"/>
-      <c r="L80" s="24"/>
+      <c r="L80" s="23"/>
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
       <c r="O80" s="12"/>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
-      <c r="R80" s="25"/>
-      <c r="S80" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U80" s="7"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R80" s="46"/>
+      <c r="S80" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T80" s="23"/>
+      <c r="U80" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V80" s="7"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="1"/>
       <c r="C81" s="7"/>
       <c r="D81" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E81" s="38">
+      <c r="E81" s="35">
         <v>6</v>
       </c>
       <c r="F81" s="11"/>
@@ -4335,27 +4965,32 @@
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
       <c r="K81" s="7"/>
-      <c r="L81" s="24"/>
+      <c r="L81" s="23"/>
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
-      <c r="R81" s="25"/>
-      <c r="S81" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U81" s="7"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R81" s="46"/>
+      <c r="S81" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T81" s="23"/>
+      <c r="U81" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V81" s="7"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="1"/>
       <c r="C82" s="7"/>
       <c r="D82" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E82" s="38">
+      <c r="E82" s="35">
         <v>8</v>
       </c>
       <c r="F82" s="11"/>
@@ -4364,27 +4999,32 @@
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="7"/>
-      <c r="L82" s="24"/>
+      <c r="L82" s="23"/>
       <c r="M82" s="12"/>
       <c r="N82" s="12"/>
       <c r="O82" s="12"/>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
-      <c r="R82" s="25"/>
-      <c r="S82" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U82" s="7"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R82" s="46"/>
+      <c r="S82" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T82" s="23"/>
+      <c r="U82" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V82" s="7"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="1"/>
       <c r="C83" s="7"/>
       <c r="D83" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E83" s="21">
         <v>4</v>
       </c>
       <c r="F83" s="11"/>
@@ -4393,27 +5033,32 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="7"/>
-      <c r="L83" s="24"/>
+      <c r="L83" s="23"/>
       <c r="M83" s="12"/>
       <c r="N83" s="12"/>
       <c r="O83" s="12"/>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
-      <c r="R83" s="25"/>
-      <c r="S83" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U83" s="7"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R83" s="46"/>
+      <c r="S83" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T83" s="23"/>
+      <c r="U83" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V83" s="7"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="1"/>
       <c r="C84" s="7"/>
       <c r="D84" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E84" s="22">
+      <c r="E84" s="21">
         <v>6</v>
       </c>
       <c r="F84" s="11"/>
@@ -4422,42 +5067,55 @@
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
       <c r="K84" s="7"/>
-      <c r="L84" s="24"/>
+      <c r="L84" s="23"/>
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
       <c r="O84" s="12"/>
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
-      <c r="R84" s="25"/>
-      <c r="S84" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U84" s="7"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R84" s="46"/>
+      <c r="S84" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T84" s="23"/>
+      <c r="U84" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V84" s="7"/>
+    </row>
+    <row r="85" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10"/>
       <c r="B85" s="1"/>
       <c r="C85" s="7"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="22"/>
+      <c r="E85" s="21"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
       <c r="K85" s="7"/>
-      <c r="L85" s="24"/>
+      <c r="L85" s="23"/>
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
       <c r="O85" s="12"/>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
-      <c r="R85" s="25"/>
-      <c r="S85" s="24"/>
-      <c r="U85" s="7"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R85" s="46"/>
+      <c r="S85" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T85" s="23"/>
+      <c r="U85" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V85" s="7"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
       <c r="B86" s="5"/>
       <c r="C86" s="17"/>
@@ -4465,7 +5123,7 @@
       <c r="E86" s="8"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="30"/>
+      <c r="H86" s="27"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="17"/>
@@ -4485,14 +5143,15 @@
       <c r="Q86" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R86" s="42"/>
-      <c r="U86" s="7"/>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R86" s="39"/>
+      <c r="S86" s="50"/>
+      <c r="V86" s="7"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="1"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="21" t="s">
+      <c r="D87" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E87" s="19" t="s">
@@ -4500,58 +5159,59 @@
       </c>
       <c r="F87" s="12">
         <f>SUM(F2:F82)</f>
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="G87" s="12">
         <f>SUM(G2:G82)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H87" s="12">
         <f>SUM(H2:H82)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="I87" s="12">
         <f>SUM(I2:I82)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J87" s="12">
         <f>SUM(J2:J82)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K87" s="7"/>
-      <c r="L87" s="24" t="s">
+      <c r="L87" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M87" s="22">
+      <c r="M87" s="21">
         <f>COUNTA(M2:M82)</f>
         <v>0</v>
       </c>
-      <c r="N87" s="22">
+      <c r="N87" s="21">
         <f>COUNTA(N2:N82)</f>
         <v>0</v>
       </c>
-      <c r="O87" s="22">
+      <c r="O87" s="21">
         <f>COUNTA(O2:O82)</f>
         <v>0</v>
       </c>
-      <c r="P87" s="22">
+      <c r="P87" s="21">
         <f>COUNTA(P2:P82)</f>
         <v>0</v>
       </c>
-      <c r="Q87" s="22">
+      <c r="Q87" s="21">
         <f>COUNTA(Q2:Q82)</f>
         <v>0</v>
       </c>
-      <c r="R87" s="29"/>
-      <c r="U87" s="7"/>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R87" s="26"/>
+      <c r="S87" s="7"/>
+      <c r="V87" s="7"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="1"/>
       <c r="C88" s="7"/>
-      <c r="D88" s="21">
+      <c r="D88" s="20">
         <f>COUNTA(D2:D82)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="12"/>
@@ -4560,25 +5220,26 @@
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
       <c r="K88" s="7"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="28"/>
-      <c r="S88" s="47"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="51"/>
+      <c r="S88" s="13"/>
       <c r="T88" s="6"/>
-      <c r="U88" s="4"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U88" s="6"/>
+      <c r="V88" s="4"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="43" t="s">
+      <c r="B89" s="40" t="s">
         <v>87</v>
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="36" t="s">
+      <c r="E89" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F89" s="12">
@@ -4602,17 +5263,17 @@
         <v>0</v>
       </c>
       <c r="K89" s="7"/>
-      <c r="L89" s="24"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L89" s="23"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C90" s="7"/>
-      <c r="D90" s="41">
+      <c r="D90" s="38">
         <f>SUM(E2:E85)</f>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="12"/>
@@ -4621,15 +5282,15 @@
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
       <c r="K90" s="7"/>
-      <c r="L90" s="24"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L90" s="23"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C91" s="7"/>
-      <c r="D91" s="41">
+      <c r="D91" s="38">
         <v>20</v>
       </c>
       <c r="E91" s="19"/>
@@ -4639,17 +5300,17 @@
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
       <c r="K91" s="7"/>
-      <c r="L91" s="24"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L91" s="23"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C92" s="7"/>
-      <c r="D92" s="41">
+      <c r="D92" s="38">
         <f>SUM(D88*0.75)</f>
-        <v>33</v>
+        <v>33.75</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="12"/>
@@ -4658,15 +5319,15 @@
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
       <c r="K92" s="7"/>
-      <c r="L92" s="24"/>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L92" s="23"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C93" s="7"/>
-      <c r="D93" s="34">
+      <c r="D93" s="31">
         <f>SUM(0.5 * 8)</f>
         <v>4</v>
       </c>
@@ -4677,26 +5338,26 @@
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
       <c r="K93" s="7"/>
-      <c r="L93" s="24"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L93" s="23"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C94" s="7"/>
-      <c r="D94" s="34">
+      <c r="D94" s="31">
         <f>SUM(6*5)</f>
         <v>30</v>
       </c>
-      <c r="E94" s="37"/>
+      <c r="E94" s="34"/>
       <c r="F94" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="31" t="s">
+      <c r="H94" s="28" t="s">
         <v>4</v>
       </c>
       <c r="I94" s="14" t="s">
@@ -4706,48 +5367,48 @@
         <v>6</v>
       </c>
       <c r="K94" s="10"/>
-      <c r="L94" s="24"/>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L94" s="23"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="43"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="18"/>
-      <c r="D95" s="40"/>
+      <c r="D95" s="37"/>
       <c r="E95" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F95" s="12">
         <f>SUM(F87:F93)</f>
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="G95" s="12">
         <f>SUM(G87:G93)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H95" s="12">
         <f>SUM(H87:H93)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="I95" s="12">
         <f>SUM(I87:I93)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J95" s="12">
         <f>SUM(J87:J93)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K95" s="7"/>
-      <c r="L95" s="24"/>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L95" s="23"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C96" s="7"/>
-      <c r="D96" s="21">
+      <c r="D96" s="20">
         <f>SUM(D90:D94)</f>
-        <v>225</v>
+        <v>228.75</v>
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="6"/>
@@ -4756,159 +5417,207 @@
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="24"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L96" s="23"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
-      <c r="B97" s="43"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="13"/>
       <c r="D97" s="6"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
-      <c r="F99" s="35"/>
+      <c r="F99" s="32"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
-      <c r="J99" s="48"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J99" s="37"/>
+      <c r="K99" s="44"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="F100" s="7"/>
-      <c r="G100" s="45" t="s">
+      <c r="G100" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="H100" s="45" t="s">
+      <c r="H100" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="I100" s="45" t="s">
+      <c r="I100" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="J100" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="J100" s="7"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K100" s="7"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="F101" s="7"/>
-      <c r="G101" s="49">
+      <c r="G101" s="45">
         <v>1</v>
       </c>
-      <c r="H101" s="50">
+      <c r="H101" s="54">
         <v>280</v>
       </c>
-      <c r="I101" s="45"/>
-      <c r="J101" s="7"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I101" s="54">
+        <v>270</v>
+      </c>
+      <c r="J101" s="52">
+        <f>SUMIF(T2:T85, "1", U2:U85)</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="K101" s="7"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="F102" s="7"/>
-      <c r="G102" s="46" t="s">
+      <c r="G102" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="55">
         <f>SUM(280-35)</f>
         <v>245</v>
       </c>
-      <c r="J102" s="7"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I102" s="56"/>
+      <c r="J102" s="52">
+        <f>SUMIF(T2:T85, "2", U2:U85)</f>
+        <v>0</v>
+      </c>
+      <c r="K102" s="7"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="46" t="s">
+      <c r="G103" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="H103">
-        <f t="shared" ref="H103:H109" si="2">SUM(H102-35)</f>
+      <c r="H103" s="55">
+        <f t="shared" ref="H103:H109" si="4">SUM(H102-35)</f>
         <v>210</v>
       </c>
-      <c r="J103" s="7"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I103" s="56"/>
+      <c r="J103" s="52">
+        <f>SUMIF(T2:T85, "3", U2:U85)</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="7"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="F104" s="7"/>
-      <c r="G104" s="46" t="s">
+      <c r="G104" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="H104">
-        <f t="shared" si="2"/>
+      <c r="H104" s="55">
+        <f t="shared" si="4"/>
         <v>175</v>
       </c>
-      <c r="J104" s="7"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I104" s="56"/>
+      <c r="J104" s="52">
+        <f>SUMIF(T2:T85, "4", U2:U85)</f>
+        <v>0</v>
+      </c>
+      <c r="K104" s="7"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F105" s="7"/>
-      <c r="G105" s="46" t="s">
+      <c r="G105" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="H105">
-        <f t="shared" si="2"/>
+      <c r="H105" s="55">
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="J105" s="7"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I105" s="56"/>
+      <c r="J105" s="52">
+        <f>SUMIF(T2:T85, "5", U2:U85)</f>
+        <v>0</v>
+      </c>
+      <c r="K105" s="7"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F106" s="7"/>
-      <c r="G106" s="46" t="s">
+      <c r="G106" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="H106">
-        <f t="shared" si="2"/>
+      <c r="H106" s="55">
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="J106" s="7"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I106" s="56"/>
+      <c r="J106" s="52">
+        <f>SUMIF(T2:T85, "6", U2:U85)</f>
+        <v>0</v>
+      </c>
+      <c r="K106" s="7"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F107" s="7"/>
-      <c r="G107" s="46" t="s">
+      <c r="G107" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H107">
-        <f t="shared" si="2"/>
+      <c r="H107" s="55">
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="J107" s="7"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I107" s="56"/>
+      <c r="J107" s="52">
+        <f>SUMIF(T2:T85, "7", U2:U85)</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="7"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F108" s="7"/>
-      <c r="G108" s="46" t="s">
+      <c r="G108" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="H108">
-        <f t="shared" si="2"/>
+      <c r="H108" s="55">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="J108" s="7"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I108" s="56"/>
+      <c r="J108" s="52">
+        <f>SUMIF(T2:T85, "8", U2:U85)</f>
+        <v>0</v>
+      </c>
+      <c r="K108" s="7"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F109" s="7"/>
-      <c r="G109" s="46"/>
-      <c r="H109">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="7"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G109" s="43"/>
+      <c r="H109" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="57"/>
+      <c r="J109" s="53"/>
+      <c r="K109" s="7"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F110" s="13"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
+      <c r="I110" s="3"/>
       <c r="J110" s="4"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F111" s="44"/>
-      <c r="G111" s="44"/>
-      <c r="J111" s="44"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F112" s="44"/>
-      <c r="G112" s="44"/>
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F111" s="41"/>
+      <c r="G111" s="41"/>
+      <c r="J111" s="41"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F112" s="41"/>
+      <c r="G112" s="41"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S2:S84">
+  <conditionalFormatting sqref="S2:S85">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -4933,7 +5642,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="S2 S3:S81 S82:S85" formulaRange="1"/>
+    <ignoredError sqref="S2 S3:S81 S82:S84 U2:U85" formulaRange="1"/>
+    <ignoredError sqref="G102:G108" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Tijd diagram sprint 3 .xlsx
+++ b/Tijd diagram sprint 3 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Beeren\Documents\GitHub\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5C5708-20A0-4E5B-A0E6-505B210ED83B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4845CCCA-9BDD-4A73-9118-15331B4BA030}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{ED121A58-3D00-4357-8DE2-C1E001567F3D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>BacklogItem</t>
   </si>
@@ -298,15 +298,22 @@
   </si>
   <si>
     <t>Ontwerp profielpagina</t>
+  </si>
+  <si>
+    <t>Tijd in uren</t>
+  </si>
+  <si>
+    <t>php profielpagina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -360,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -559,12 +566,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -632,12 +652,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -673,6 +687,36 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -771,7 +815,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$H$100</c:f>
+              <c:f>Blad1!$I$100</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -794,31 +838,34 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$G$101:$G$109</c:f>
+              <c:f>Blad1!$H$101:$H$110</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
@@ -826,10 +873,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$H$101:$H$109</c:f>
+              <c:f>Blad1!$I$101:$I$110</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>280</c:v>
                 </c:pt>
@@ -888,7 +935,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$I$100</c:f>
+              <c:f>Blad1!$J$100</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -911,31 +958,34 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$G$101:$G$109</c:f>
+              <c:f>Blad1!$H$101:$H$110</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
@@ -943,12 +993,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$I$101:$I$109</c:f>
+              <c:f>Blad1!$J$101:$J$110</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>270</c:v>
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,6 +1133,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="429324840"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
@@ -1182,6 +1236,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="429323856"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1296,6 +1351,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="429322216"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1948,15 +2004,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>1325181</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>41150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>97692</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>80818</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2282,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EA0DA6-8752-44E6-9604-3DF87F38EE9D}">
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:W113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="66" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="E92" zoomScale="77" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2294,18 +2350,19 @@
     <col min="2" max="2" width="53.21875" customWidth="1"/>
     <col min="3" max="3" width="4.77734375" customWidth="1"/>
     <col min="4" max="4" width="59.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.77734375" customWidth="1"/>
-    <col min="19" max="19" width="4.33203125" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" customWidth="1"/>
+    <col min="13" max="13" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.77734375" customWidth="1"/>
+    <col min="20" max="20" width="4.33203125" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="15" t="s">
         <v>0</v>
@@ -2317,51 +2374,54 @@
       <c r="E1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="22"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="10"/>
-    </row>
-    <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="W1" s="10"/>
+    </row>
+    <row r="2" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="30" t="s">
         <v>32</v>
@@ -2370,366 +2430,414 @@
       <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="60">
         <v>4</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="56">
+        <f>TIME(E2,0,0)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G2" s="57"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="12"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47">
-        <f>COUNTA(F2:Q2)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="12">
-        <f>SUM(F2:J2,M2:Q2)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R2" s="12"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="45">
+        <f>COUNTA(G2:R2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="23"/>
+      <c r="V2" s="12">
+        <f>SUM(G2:K2,N2:R2)</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="30"/>
       <c r="C3" s="7"/>
       <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="61">
         <v>2</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="56">
+        <f>TIME(E3,0,0)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G3" s="58"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="12"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="23"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="48">
-        <f>COUNTA(F3:Q3)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="12">
-        <f>SUM(F3:J3,M3:Q3)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="7"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R3" s="12"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="46">
+        <f>COUNTA(G3:R3)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="23"/>
+      <c r="V3" s="12">
+        <f>SUM(G3:K3,N3:R3)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="7"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="30"/>
       <c r="C4" s="7"/>
       <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="61">
         <v>4</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="56">
+        <f>TIME(E4,0,0)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G4" s="58">
+        <v>0.125</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="12"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="48">
-        <f>COUNTA(F4:Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="12">
-        <f t="shared" ref="U4:U67" si="0">SUM(F4:J4,M4:Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="7"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R4" s="12"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="46">
+        <f>COUNTA(G4:R4)</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="23">
+        <v>2</v>
+      </c>
+      <c r="V4" s="12">
+        <f>SUM(G4:K4,N4:R4)</f>
+        <v>0.125</v>
+      </c>
+      <c r="W4" s="7"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="30"/>
       <c r="C5" s="7"/>
       <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="61">
         <v>1</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="56">
+        <f>TIME(E5,0,0)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G5" s="58"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="11">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="12"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="48">
-        <f>COUNTA(F5:Q5)</f>
+      <c r="R5" s="12"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="46">
+        <f>COUNTA(G5:R5)</f>
         <v>1</v>
       </c>
-      <c r="T5" s="23">
+      <c r="U5" s="23">
         <v>1</v>
       </c>
-      <c r="U5" s="12">
-        <f t="shared" si="0"/>
+      <c r="V5" s="12">
+        <f t="shared" ref="V5:V68" si="0">SUM(G5:K5,N5:R5)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="30"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="61">
         <v>1</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="56">
+        <f t="shared" ref="F6:F69" si="1">TIME(E6,0,0)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G6" s="58"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="12"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="48">
-        <f t="shared" ref="S6:S69" si="1">COUNTA(F6:Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="23"/>
-      <c r="U6" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R6" s="12"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="46">
+        <f t="shared" ref="T6:T69" si="2">COUNTA(G6:R6)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="23"/>
+      <c r="V6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="30"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="61">
         <v>1</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="56">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G7" s="58"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="12"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="23"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="23"/>
-      <c r="U7" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R7" s="12"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="23"/>
+      <c r="V7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="30"/>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="61">
         <v>2</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G8" s="58"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="23"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="23"/>
-      <c r="U8" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="12"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="23"/>
+      <c r="V8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="30"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="61">
         <v>2</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G9" s="58"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="12"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="23"/>
-      <c r="U9" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R9" s="12"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="23"/>
+      <c r="V9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="30"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="58"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="12"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="23"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="23"/>
-      <c r="U10" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R10" s="12"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="23"/>
+      <c r="V10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="30"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="58"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="12"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="23"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="23"/>
-      <c r="U11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R11" s="12"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="23"/>
+      <c r="V11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="30"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="58"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="12"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="23"/>
-      <c r="U12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="12"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="23"/>
+      <c r="V12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="30" t="s">
         <v>35</v>
@@ -2738,286 +2846,322 @@
       <c r="D13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="61">
         <v>4</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="56">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G13" s="58"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="12"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="23"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="23"/>
-      <c r="U13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="12"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="23"/>
+      <c r="V13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="30"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="61">
         <v>4</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="F14" s="56">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G14" s="58"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="12"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="23"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="23"/>
-      <c r="U14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R14" s="12"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="23"/>
+      <c r="V14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="30"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="61">
         <v>3</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="56">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="G15" s="58"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="23"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="23"/>
-      <c r="U15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R15" s="12"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="23"/>
+      <c r="V15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="30"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="61">
         <v>2</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G16" s="58"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="12"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="23"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="23"/>
-      <c r="U16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R16" s="12"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="23"/>
+      <c r="V16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="30"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="58"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="12"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="23"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="23"/>
-      <c r="U17" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="7"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R17" s="12"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="23"/>
+      <c r="V17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="30"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="58"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="23"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="23"/>
-      <c r="U18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="7"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R18" s="12"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="23"/>
+      <c r="V18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="30"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="58"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="23"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="23"/>
-      <c r="U19" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="7"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R19" s="12"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="23"/>
+      <c r="V19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="30"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="58"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="23"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="23"/>
-      <c r="U20" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="7"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R20" s="12"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="23"/>
+      <c r="V20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="7"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="30"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="58"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="23"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="23"/>
-      <c r="U21" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="7"/>
-    </row>
-    <row r="22" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R21" s="12"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="23"/>
+      <c r="V21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="7"/>
+    </row>
+    <row r="22" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="30" t="s">
         <v>41</v>
@@ -3026,226 +3170,254 @@
       <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="61">
         <v>2</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="F22" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G22" s="58"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="23"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="23"/>
-      <c r="U22" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="7"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R22" s="12"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="23"/>
+      <c r="V22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="7"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="30"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="61">
         <v>2</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G23" s="58"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="12"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="23"/>
-      <c r="U23" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="7"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R23" s="12"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="23"/>
+      <c r="V23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="7"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="30"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="61">
         <v>1</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="F24" s="56">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G24" s="58"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="12"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="23"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="23"/>
-      <c r="U24" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="7"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R24" s="12"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="23"/>
+      <c r="V24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="7"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="30"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="61">
         <v>1</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="F25" s="56">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G25" s="58"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="12"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="23"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="23"/>
-      <c r="U25" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="7"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R25" s="12"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="23"/>
+      <c r="V25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="7"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="30"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="58"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="12"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="23"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="23"/>
-      <c r="U26" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="7"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R26" s="12"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="23"/>
+      <c r="V26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="7"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="30"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="58"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="12"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="23"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="23"/>
-      <c r="U27" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="7"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R27" s="12"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="23"/>
+      <c r="V27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="7"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="30"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="58"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="12"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="23"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="23"/>
-      <c r="U28" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="7"/>
-    </row>
-    <row r="29" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R28" s="12"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="23"/>
+      <c r="V28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="7"/>
+    </row>
+    <row r="29" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="30" t="s">
         <v>36</v>
@@ -3254,294 +3426,330 @@
       <c r="D29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="61">
         <v>2</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="F29" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G29" s="58"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="11">
+      <c r="I29" s="11"/>
+      <c r="J29" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="12"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="23"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="48">
-        <f t="shared" si="1"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="46">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T29" s="23">
+      <c r="U29" s="23">
         <v>1</v>
       </c>
-      <c r="U29" s="12">
+      <c r="V29" s="12">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="V29" s="7"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W29" s="7"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="30"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="61">
         <v>2</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G30" s="58"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="12"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="23"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="23"/>
-      <c r="U30" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="7"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R30" s="12"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="23"/>
+      <c r="V30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="7"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="30"/>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="61">
         <v>2</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G31" s="58"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="12"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="23"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="23"/>
-      <c r="U31" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="7"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R31" s="12"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="23"/>
+      <c r="V31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="7"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="30"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="61">
         <v>2</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="F32" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G32" s="58"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="12"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="23"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="23"/>
-      <c r="U32" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="7"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R32" s="12"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="7"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="30"/>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="61">
         <v>1</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="56">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G33" s="58"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="12"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="23"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="23"/>
-      <c r="U33" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="7"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R33" s="12"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="7"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="30"/>
       <c r="C34" s="7"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="58"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="12"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="23"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="23"/>
-      <c r="U34" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="7"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R34" s="12"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="23"/>
+      <c r="V34" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="7"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="30"/>
       <c r="C35" s="7"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="58"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="12"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="23"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="23"/>
-      <c r="U35" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="7"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R35" s="12"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="23"/>
+      <c r="V35" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="7"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="30"/>
       <c r="C36" s="7"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="58"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="12"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="23"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="23"/>
-      <c r="U36" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="7"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R36" s="12"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="23"/>
+      <c r="V36" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="7"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="30"/>
       <c r="C37" s="7"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="58"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="12"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="23"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="23"/>
-      <c r="U37" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="7"/>
-    </row>
-    <row r="38" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R37" s="12"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="23"/>
+      <c r="V37" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="7"/>
+    </row>
+    <row r="38" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="30" t="s">
         <v>37</v>
@@ -3550,282 +3758,322 @@
       <c r="D38" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="61">
         <v>2</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="F38" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G38" s="58"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="12"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="23"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T38" s="23"/>
-      <c r="U38" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="7"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R38" s="12"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="23"/>
+      <c r="V38" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="7"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="30"/>
       <c r="C39" s="7"/>
       <c r="D39" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="61">
         <v>4</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="F39" s="56">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G39" s="58">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="12"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="23"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="23"/>
-      <c r="U39" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="7"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R39" s="12"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U39" s="23">
+        <v>2</v>
+      </c>
+      <c r="V39" s="12">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="W39" s="7"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="30"/>
       <c r="C40" s="7"/>
       <c r="D40" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="61">
         <v>3</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="F40" s="56">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="G40" s="58"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="12"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="23"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="23"/>
-      <c r="U40" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="7"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R40" s="12"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="23"/>
+      <c r="V40" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="7"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="30"/>
       <c r="C41" s="7"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="58"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="12"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="23"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="23"/>
-      <c r="U41" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="7"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R41" s="12"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="23"/>
+      <c r="V41" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="7"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="30"/>
       <c r="C42" s="7"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="58"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="12"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="23"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="23"/>
-      <c r="U42" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="7"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R42" s="12"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="23"/>
+      <c r="V42" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="7"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="30"/>
       <c r="C43" s="7"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="58"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="12"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="23"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="23"/>
-      <c r="U43" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="7"/>
-    </row>
-    <row r="44" spans="1:22" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R43" s="12"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="23"/>
+      <c r="V43" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="7"/>
+    </row>
+    <row r="44" spans="1:23" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="30"/>
       <c r="C44" s="7"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="58"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="12"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="23"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="23"/>
-      <c r="U44" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="7"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R44" s="12"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="23"/>
+      <c r="V44" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="7"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="30"/>
       <c r="C45" s="7"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="58"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="12"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="23"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="23"/>
-      <c r="U45" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V45" s="7"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R45" s="12"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="23"/>
+      <c r="V45" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="7"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="30"/>
       <c r="C46" s="7"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="58"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="12"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="23"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="23"/>
-      <c r="U46" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="7"/>
-    </row>
-    <row r="47" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R46" s="12"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="23"/>
+      <c r="V46" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="7"/>
+    </row>
+    <row r="47" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="30" t="s">
         <v>38</v>
@@ -3834,238 +4082,274 @@
       <c r="D47" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="61">
         <v>2</v>
       </c>
-      <c r="F47" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G47" s="11"/>
+      <c r="F47" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G47" s="58">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="12"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="23"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="48">
-        <f t="shared" si="1"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="46">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T47" s="23">
+      <c r="U47" s="23">
         <v>1</v>
       </c>
-      <c r="U47" s="12">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="V47" s="7"/>
-    </row>
-    <row r="48" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V47" s="12">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="W47" s="7"/>
+    </row>
+    <row r="48" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="30"/>
       <c r="C48" s="7"/>
       <c r="D48" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="61">
         <v>4</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="F48" s="56">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G48" s="58">
+        <v>6.25E-2</v>
+      </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="12"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="23"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="23"/>
-      <c r="U48" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="7"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R48" s="12"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U48" s="23">
+        <v>2</v>
+      </c>
+      <c r="V48" s="12">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="W48" s="7"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="30"/>
       <c r="C49" s="7"/>
       <c r="D49" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="61">
         <v>3</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="F49" s="56">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="G49" s="58"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="12"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="23"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="23"/>
-      <c r="U49" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V49" s="7"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R49" s="12"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="23"/>
+      <c r="V49" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="7"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="30"/>
       <c r="C50" s="7"/>
       <c r="D50" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="35">
+      <c r="E50" s="61">
         <v>3</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="F50" s="56">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="G50" s="58"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="12"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="23"/>
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T50" s="23"/>
-      <c r="U50" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V50" s="7"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R50" s="12"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="23"/>
+      <c r="V50" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="7"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="30"/>
       <c r="C51" s="7"/>
       <c r="D51" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="35">
+      <c r="E51" s="61">
         <v>3</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11">
+      <c r="F51" s="56">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="G51" s="58"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I51" s="11"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="12"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="23"/>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="48">
-        <f t="shared" si="1"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="46">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T51" s="23">
+      <c r="U51" s="23">
         <v>1</v>
       </c>
-      <c r="U51" s="12">
+      <c r="V51" s="12">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="V51" s="7"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W51" s="7"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="30"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="D52" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="61">
+        <v>4</v>
+      </c>
+      <c r="F52" s="56">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G52" s="58"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="12"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="23"/>
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T52" s="23"/>
-      <c r="U52" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V52" s="7"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R52" s="12"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="23"/>
+      <c r="V52" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="7"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="30"/>
       <c r="C53" s="7"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="58"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="12"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="23"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
-      <c r="R53" s="46"/>
-      <c r="S53" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="23"/>
-      <c r="U53" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V53" s="7"/>
-    </row>
-    <row r="54" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="R53" s="12"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="23"/>
+      <c r="V53" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="7"/>
+    </row>
+    <row r="54" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="30" t="s">
         <v>39</v>
@@ -4074,158 +4358,178 @@
       <c r="D54" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="35">
+      <c r="E54" s="61">
         <v>2</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="F54" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G54" s="58"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="12"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="23"/>
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
-      <c r="R54" s="46"/>
-      <c r="S54" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="23"/>
-      <c r="U54" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V54" s="7"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R54" s="12"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="23"/>
+      <c r="V54" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="7"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="30"/>
       <c r="C55" s="7"/>
       <c r="D55" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E55" s="35">
+      <c r="E55" s="61">
         <v>2</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="F55" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G55" s="58"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="12"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="23"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
-      <c r="R55" s="46"/>
-      <c r="S55" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T55" s="23"/>
-      <c r="U55" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V55" s="7"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R55" s="12"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="23"/>
+      <c r="V55" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="7"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="30"/>
       <c r="C56" s="7"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="58"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="12"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="23"/>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
-      <c r="R56" s="46"/>
-      <c r="S56" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="23"/>
-      <c r="U56" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V56" s="7"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R56" s="12"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="23"/>
+      <c r="V56" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="7"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="30"/>
       <c r="C57" s="7"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="58"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="12"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="23"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
-      <c r="R57" s="46"/>
-      <c r="S57" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T57" s="23"/>
-      <c r="U57" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V57" s="7"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R57" s="12"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="23"/>
+      <c r="V57" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="7"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="30"/>
       <c r="C58" s="7"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="58"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="12"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="23"/>
       <c r="N58" s="12"/>
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T58" s="23"/>
-      <c r="U58" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V58" s="7"/>
-    </row>
-    <row r="59" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="R58" s="12"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="23"/>
+      <c r="V58" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="7"/>
+    </row>
+    <row r="59" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="30" t="s">
         <v>40</v>
@@ -4234,158 +4538,178 @@
       <c r="D59" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="35">
+      <c r="E59" s="61">
         <v>1</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
+      <c r="F59" s="56">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G59" s="58"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="12"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="23"/>
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
-      <c r="R59" s="46"/>
-      <c r="S59" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T59" s="23"/>
-      <c r="U59" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V59" s="7"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R59" s="12"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="23"/>
+      <c r="V59" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="7"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="30"/>
       <c r="C60" s="7"/>
       <c r="D60" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="35">
+      <c r="E60" s="61">
         <v>3</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+      <c r="F60" s="56">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="G60" s="58"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="12"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="23"/>
       <c r="N60" s="12"/>
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
-      <c r="R60" s="46"/>
-      <c r="S60" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T60" s="23"/>
-      <c r="U60" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V60" s="7"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R60" s="12"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="23"/>
+      <c r="V60" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="7"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="30"/>
       <c r="C61" s="7"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="58"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="12"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="23"/>
       <c r="N61" s="12"/>
       <c r="O61" s="12"/>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
-      <c r="R61" s="46"/>
-      <c r="S61" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T61" s="23"/>
-      <c r="U61" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V61" s="7"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R61" s="12"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U61" s="23"/>
+      <c r="V61" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="7"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="30"/>
       <c r="C62" s="7"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="58"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="12"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="23"/>
       <c r="N62" s="12"/>
       <c r="O62" s="12"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
-      <c r="R62" s="46"/>
-      <c r="S62" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T62" s="23"/>
-      <c r="U62" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V62" s="7"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R62" s="12"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U62" s="23"/>
+      <c r="V62" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="7"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="30"/>
       <c r="C63" s="7"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="58"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="12"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="23"/>
       <c r="N63" s="12"/>
       <c r="O63" s="12"/>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
-      <c r="R63" s="46"/>
-      <c r="S63" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T63" s="23"/>
-      <c r="U63" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V63" s="7"/>
-    </row>
-    <row r="64" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R63" s="12"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="23"/>
+      <c r="V63" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="7"/>
+    </row>
+    <row r="64" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="30" t="s">
         <v>42</v>
@@ -4394,222 +4718,250 @@
       <c r="D64" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="61">
         <v>2</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+      <c r="F64" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G64" s="58"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="12"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="23"/>
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
-      <c r="R64" s="46"/>
-      <c r="S64" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T64" s="23"/>
-      <c r="U64" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V64" s="7"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R64" s="12"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="23"/>
+      <c r="V64" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="7"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="30"/>
       <c r="C65" s="7"/>
       <c r="D65" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E65" s="35">
+      <c r="E65" s="61">
         <v>2</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="F65" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G65" s="58"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="12"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="23"/>
       <c r="N65" s="12"/>
       <c r="O65" s="12"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
-      <c r="R65" s="46"/>
-      <c r="S65" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="23"/>
-      <c r="U65" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V65" s="7"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R65" s="12"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="23"/>
+      <c r="V65" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="7"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="30"/>
       <c r="C66" s="7"/>
       <c r="D66" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E66" s="35">
+      <c r="E66" s="61">
         <v>2</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="F66" s="56">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G66" s="58"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="12"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="23"/>
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
-      <c r="R66" s="46"/>
-      <c r="S66" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T66" s="23"/>
-      <c r="U66" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V66" s="7"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R66" s="12"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="23"/>
+      <c r="V66" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="7"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="30"/>
       <c r="C67" s="7"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="58"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="12"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="23"/>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
-      <c r="R67" s="46"/>
-      <c r="S67" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T67" s="23"/>
-      <c r="U67" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V67" s="7"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R67" s="12"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U67" s="23"/>
+      <c r="V67" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="7"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="30"/>
       <c r="C68" s="7"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="58"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="12"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="23"/>
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
-      <c r="R68" s="46"/>
-      <c r="S68" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T68" s="23"/>
-      <c r="U68" s="12">
-        <f t="shared" ref="U68:U85" si="2">SUM(F68:J68,M68:Q68)</f>
-        <v>0</v>
-      </c>
-      <c r="V68" s="7"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R68" s="12"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="23"/>
+      <c r="V68" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W68" s="7"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="30"/>
       <c r="C69" s="7"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="58"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="12"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="23"/>
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
-      <c r="R69" s="46"/>
-      <c r="S69" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="23"/>
-      <c r="U69" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="7"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R69" s="12"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="23"/>
+      <c r="V69" s="12">
+        <f t="shared" ref="V69:V85" si="3">SUM(G69:K69,N69:R69)</f>
+        <v>0</v>
+      </c>
+      <c r="W69" s="7"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="30"/>
       <c r="C70" s="7"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="56">
+        <f t="shared" ref="F70:F84" si="4">TIME(E70,0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="58"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="12"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="23"/>
       <c r="N70" s="12"/>
       <c r="O70" s="12"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="12"/>
-      <c r="R70" s="46"/>
-      <c r="S70" s="48">
-        <f t="shared" ref="S70:S85" si="3">COUNTA(F70:Q70)</f>
-        <v>0</v>
-      </c>
-      <c r="T70" s="23"/>
-      <c r="U70" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V70" s="7"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R70" s="12"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="46">
+        <f t="shared" ref="T70:T85" si="5">COUNTA(G70:R70)</f>
+        <v>0</v>
+      </c>
+      <c r="U70" s="23"/>
+      <c r="V70" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W70" s="7"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="30" t="s">
         <v>33</v>
@@ -4618,196 +4970,220 @@
       <c r="D71" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E71" s="35">
+      <c r="E71" s="61">
         <v>3</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="11"/>
+      <c r="F71" s="56">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="G71" s="58"/>
+      <c r="H71" s="16"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="12"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="23"/>
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
-      <c r="R71" s="46"/>
-      <c r="S71" s="48">
+      <c r="R71" s="12"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="23"/>
+      <c r="V71" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T71" s="23"/>
-      <c r="U71" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V71" s="7"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W71" s="7"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="30"/>
       <c r="C72" s="7"/>
       <c r="D72" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E72" s="35">
+      <c r="E72" s="61">
         <v>4</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11">
+      <c r="F72" s="56">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G72" s="58"/>
+      <c r="H72" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="12"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="23"/>
       <c r="N72" s="12"/>
       <c r="O72" s="12"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
-      <c r="R72" s="46"/>
-      <c r="S72" s="48">
+      <c r="R72" s="12"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="46">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U72" s="23">
+        <v>1</v>
+      </c>
+      <c r="V72" s="12">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="T72" s="23">
-        <v>1</v>
-      </c>
-      <c r="U72" s="12">
-        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="V72" s="7"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W72" s="7"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="30"/>
       <c r="C73" s="7"/>
       <c r="D73" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E73" s="35">
+      <c r="E73" s="61">
         <v>3</v>
       </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
+      <c r="F73" s="56">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="G73" s="58"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="12"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="23"/>
       <c r="N73" s="12"/>
       <c r="O73" s="12"/>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
-      <c r="R73" s="46"/>
-      <c r="S73" s="48">
+      <c r="R73" s="12"/>
+      <c r="S73" s="44"/>
+      <c r="T73" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="23"/>
+      <c r="V73" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T73" s="23"/>
-      <c r="U73" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V73" s="7"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W73" s="7"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="1"/>
       <c r="C74" s="7"/>
       <c r="D74" s="9"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="58"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="12"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="23"/>
       <c r="N74" s="12"/>
       <c r="O74" s="12"/>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
-      <c r="R74" s="46"/>
-      <c r="S74" s="48">
+      <c r="R74" s="12"/>
+      <c r="S74" s="44"/>
+      <c r="T74" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="23"/>
+      <c r="V74" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T74" s="23"/>
-      <c r="U74" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="7"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W74" s="7"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="1"/>
       <c r="C75" s="7"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="58"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="12"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="23"/>
       <c r="N75" s="12"/>
       <c r="O75" s="12"/>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
-      <c r="R75" s="46"/>
-      <c r="S75" s="48">
+      <c r="R75" s="12"/>
+      <c r="S75" s="44"/>
+      <c r="T75" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="23"/>
+      <c r="V75" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T75" s="23"/>
-      <c r="U75" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V75" s="7"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W75" s="7"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="1"/>
       <c r="C76" s="7"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="58"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="12"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="23"/>
       <c r="N76" s="12"/>
       <c r="O76" s="12"/>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
-      <c r="R76" s="46"/>
-      <c r="S76" s="48">
+      <c r="R76" s="12"/>
+      <c r="S76" s="44"/>
+      <c r="T76" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U76" s="23"/>
+      <c r="V76" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T76" s="23"/>
-      <c r="U76" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V76" s="7"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W76" s="7"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="30" t="s">
         <v>62</v>
@@ -4816,338 +5192,372 @@
       <c r="D77" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E77" s="35">
+      <c r="E77" s="61">
         <v>8</v>
       </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
+      <c r="F77" s="56">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G77" s="58"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="12"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="23"/>
       <c r="N77" s="12"/>
       <c r="O77" s="12"/>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
-      <c r="R77" s="46"/>
-      <c r="S77" s="48">
+      <c r="R77" s="12"/>
+      <c r="S77" s="44"/>
+      <c r="T77" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="23"/>
+      <c r="V77" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T77" s="23"/>
-      <c r="U77" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V77" s="7"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W77" s="7"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="1"/>
       <c r="C78" s="7"/>
       <c r="D78" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E78" s="35">
+      <c r="E78" s="61">
         <v>8</v>
       </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="F78" s="56">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G78" s="58"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="23"/>
-      <c r="M78" s="12"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="23"/>
       <c r="N78" s="12"/>
       <c r="O78" s="12"/>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
-      <c r="R78" s="46"/>
-      <c r="S78" s="48">
+      <c r="R78" s="12"/>
+      <c r="S78" s="44"/>
+      <c r="T78" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="23"/>
+      <c r="V78" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T78" s="23"/>
-      <c r="U78" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V78" s="7"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W78" s="7"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="1"/>
       <c r="C79" s="7"/>
       <c r="D79" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E79" s="35">
-        <v>4</v>
-      </c>
-      <c r="F79" s="11">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="G79" s="11"/>
+      <c r="E79" s="61">
+        <v>8</v>
+      </c>
+      <c r="F79" s="56">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G79" s="58">
+        <v>0.25</v>
+      </c>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="23"/>
-      <c r="M79" s="12"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="23"/>
       <c r="N79" s="12"/>
       <c r="O79" s="12"/>
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
-      <c r="R79" s="46"/>
-      <c r="S79" s="48">
+      <c r="R79" s="12"/>
+      <c r="S79" s="44"/>
+      <c r="T79" s="46">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U79" s="23">
+        <v>1</v>
+      </c>
+      <c r="V79" s="12">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="T79" s="23">
-        <v>1</v>
-      </c>
-      <c r="U79" s="12">
-        <f t="shared" si="2"/>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="V79" s="7"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+      <c r="W79" s="7"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="1"/>
       <c r="C80" s="7"/>
       <c r="D80" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E80" s="35">
+      <c r="E80" s="61">
         <v>4</v>
       </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="F80" s="56">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G80" s="58"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="12"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="23"/>
       <c r="N80" s="12"/>
       <c r="O80" s="12"/>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
-      <c r="R80" s="46"/>
-      <c r="S80" s="48">
+      <c r="R80" s="12"/>
+      <c r="S80" s="44"/>
+      <c r="T80" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U80" s="23"/>
+      <c r="V80" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T80" s="23"/>
-      <c r="U80" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V80" s="7"/>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W80" s="7"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="1"/>
       <c r="C81" s="7"/>
       <c r="D81" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E81" s="35">
+      <c r="E81" s="61">
         <v>6</v>
       </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
+      <c r="F81" s="56">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="G81" s="58"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="12"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="23"/>
       <c r="N81" s="12"/>
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
-      <c r="R81" s="46"/>
-      <c r="S81" s="48">
+      <c r="R81" s="12"/>
+      <c r="S81" s="44"/>
+      <c r="T81" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U81" s="23"/>
+      <c r="V81" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T81" s="23"/>
-      <c r="U81" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V81" s="7"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W81" s="7"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="1"/>
       <c r="C82" s="7"/>
       <c r="D82" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E82" s="35">
+      <c r="E82" s="61">
         <v>8</v>
       </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
+      <c r="F82" s="56">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G82" s="58"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="12"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="23"/>
       <c r="N82" s="12"/>
       <c r="O82" s="12"/>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
-      <c r="R82" s="46"/>
-      <c r="S82" s="48">
+      <c r="R82" s="12"/>
+      <c r="S82" s="44"/>
+      <c r="T82" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U82" s="23"/>
+      <c r="V82" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T82" s="23"/>
-      <c r="U82" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V82" s="7"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W82" s="7"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="1"/>
       <c r="C83" s="7"/>
       <c r="D83" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="63">
         <v>4</v>
       </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
+      <c r="F83" s="56">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G83" s="58"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="23"/>
-      <c r="M83" s="12"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="23"/>
       <c r="N83" s="12"/>
       <c r="O83" s="12"/>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
-      <c r="R83" s="46"/>
-      <c r="S83" s="48">
+      <c r="R83" s="12"/>
+      <c r="S83" s="44"/>
+      <c r="T83" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U83" s="23"/>
+      <c r="V83" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T83" s="23"/>
-      <c r="U83" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V83" s="7"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W83" s="7"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="1"/>
       <c r="C84" s="7"/>
       <c r="D84" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="63">
         <v>6</v>
       </c>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
+      <c r="F84" s="56">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="G84" s="58"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="12"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="23"/>
       <c r="N84" s="12"/>
       <c r="O84" s="12"/>
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
-      <c r="R84" s="46"/>
-      <c r="S84" s="48">
+      <c r="R84" s="12"/>
+      <c r="S84" s="44"/>
+      <c r="T84" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U84" s="23"/>
+      <c r="V84" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T84" s="23"/>
-      <c r="U84" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V84" s="7"/>
-    </row>
-    <row r="85" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W84" s="7"/>
+    </row>
+    <row r="85" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10"/>
       <c r="B85" s="1"/>
       <c r="C85" s="7"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="59"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="23"/>
-      <c r="M85" s="12"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="23"/>
       <c r="N85" s="12"/>
       <c r="O85" s="12"/>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
-      <c r="R85" s="46"/>
-      <c r="S85" s="49">
+      <c r="R85" s="12"/>
+      <c r="S85" s="44"/>
+      <c r="T85" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="23"/>
+      <c r="V85" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T85" s="23"/>
-      <c r="U85" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V85" s="7"/>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W85" s="7"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
       <c r="B86" s="5"/>
       <c r="C86" s="17"/>
       <c r="D86" s="6"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="6"/>
+      <c r="F86" s="32"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="27"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="14" t="s">
+      <c r="K86" s="6"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N86" s="14" t="s">
+      <c r="O86" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="O86" s="14" t="s">
+      <c r="P86" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P86" s="14" t="s">
+      <c r="Q86" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q86" s="14" t="s">
+      <c r="R86" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R86" s="39"/>
-      <c r="S86" s="50"/>
-      <c r="V86" s="7"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S86" s="37"/>
+      <c r="T86" s="48"/>
+      <c r="W86" s="7"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="1"/>
       <c r="C87" s="7"/>
@@ -5157,13 +5567,10 @@
       <c r="E87" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="12">
-        <f>SUM(F2:F82)</f>
-        <v>0.25</v>
-      </c>
-      <c r="G87" s="12">
+      <c r="F87" s="22"/>
+      <c r="G87" s="65">
         <f>SUM(G2:G82)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="H87" s="12">
         <f>SUM(H2:H82)</f>
@@ -5177,13 +5584,13 @@
         <f>SUM(J2:J82)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K87" s="7"/>
-      <c r="L87" s="23" t="s">
+      <c r="K87" s="12">
+        <f>SUM(K2:K82)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L87" s="7"/>
+      <c r="M87" s="23" t="s">
         <v>11</v>
-      </c>
-      <c r="M87" s="21">
-        <f>COUNTA(M2:M82)</f>
-        <v>0</v>
       </c>
       <c r="N87" s="21">
         <f>COUNTA(N2:N82)</f>
@@ -5201,40 +5608,45 @@
         <f>COUNTA(Q2:Q82)</f>
         <v>0</v>
       </c>
-      <c r="R87" s="26"/>
-      <c r="S87" s="7"/>
-      <c r="V87" s="7"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R87" s="21">
+        <f>COUNTA(R2:R82)</f>
+        <v>0</v>
+      </c>
+      <c r="S87" s="26"/>
+      <c r="T87" s="7"/>
+      <c r="W87" s="7"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="1"/>
       <c r="C88" s="7"/>
       <c r="D88" s="20">
         <f>COUNTA(D2:D82)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E88" s="7"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="66"/>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="25"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="24"/>
       <c r="N88" s="25"/>
       <c r="O88" s="25"/>
       <c r="P88" s="25"/>
       <c r="Q88" s="25"/>
-      <c r="R88" s="51"/>
-      <c r="S88" s="13"/>
-      <c r="T88" s="6"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="49"/>
+      <c r="T88" s="13"/>
       <c r="U88" s="6"/>
-      <c r="V88" s="4"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V88" s="6"/>
+      <c r="W88" s="4"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="38" t="s">
         <v>87</v>
       </c>
       <c r="C89" s="18"/>
@@ -5242,11 +5654,8 @@
       <c r="E89" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="12">
-        <f>SUM(M2:M82)</f>
-        <v>0</v>
-      </c>
-      <c r="G89" s="12">
+      <c r="F89" s="22"/>
+      <c r="G89" s="66">
         <f>SUM(N2:N82)</f>
         <v>0</v>
       </c>
@@ -5262,85 +5671,93 @@
         <f>SUM(Q2:Q82)</f>
         <v>0</v>
       </c>
-      <c r="K89" s="7"/>
-      <c r="L89" s="23"/>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K89" s="12">
+        <f>SUM(R2:R82)</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="7"/>
+      <c r="M89" s="23"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C90" s="7"/>
-      <c r="D90" s="38">
+      <c r="D90" s="36">
         <f>SUM(E2:E85)</f>
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E90" s="19"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="66"/>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="23"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K90" s="12"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="23"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C91" s="7"/>
-      <c r="D91" s="38">
+      <c r="D91" s="36">
         <v>20</v>
       </c>
       <c r="E91" s="19"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="66"/>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="23"/>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K91" s="12"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="23"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C92" s="7"/>
-      <c r="D92" s="38">
+      <c r="D92" s="36">
         <f>SUM(D88*0.75)</f>
-        <v>33.75</v>
+        <v>34.5</v>
       </c>
       <c r="E92" s="19"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="66"/>
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="23"/>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K92" s="12"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="23"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="31">
-        <f>SUM(0.5 * 8)</f>
-        <v>4</v>
+        <f>SUM(0.5 * 8 * 5)</f>
+        <v>20</v>
       </c>
       <c r="E93" s="19"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="67"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="23"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K93" s="12"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="23"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="1" t="s">
         <v>55</v>
@@ -5351,56 +5768,58 @@
         <v>30</v>
       </c>
       <c r="E94" s="34"/>
-      <c r="F94" s="14" t="s">
+      <c r="F94" s="34"/>
+      <c r="G94" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G94" s="14" t="s">
+      <c r="H94" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="28" t="s">
+      <c r="I94" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="14" t="s">
+      <c r="J94" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="14" t="s">
+      <c r="K94" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K94" s="10"/>
-      <c r="L94" s="23"/>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="L94" s="10"/>
+      <c r="M94" s="23"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="40"/>
+      <c r="B95" s="38"/>
       <c r="C95" s="18"/>
-      <c r="D95" s="37"/>
+      <c r="D95" s="35"/>
       <c r="E95" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="12">
-        <f>SUM(F87:F93)</f>
-        <v>0.25</v>
-      </c>
-      <c r="G95" s="12">
+      <c r="F95" s="22"/>
+      <c r="G95" s="69">
         <f>SUM(G87:G93)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H95" s="12">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H95" s="69">
         <f>SUM(H87:H93)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I95" s="12">
+      <c r="I95" s="69">
         <f>SUM(I87:I93)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J95" s="12">
+      <c r="J95" s="69">
         <f>SUM(J87:J93)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K95" s="7"/>
-      <c r="L95" s="23"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K95" s="69">
+        <f>SUM(K87:K93)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L95" s="7"/>
+      <c r="M95" s="23"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="1" t="s">
         <v>74</v>
@@ -5408,216 +5827,231 @@
       <c r="C96" s="7"/>
       <c r="D96" s="20">
         <f>SUM(D90:D94)</f>
-        <v>228.75</v>
+        <v>253.5</v>
       </c>
       <c r="E96" s="18"/>
-      <c r="F96" s="6"/>
+      <c r="F96" s="18"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="23"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="6"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="23"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
-      <c r="B97" s="40"/>
+      <c r="B97" s="38"/>
       <c r="C97" s="13"/>
       <c r="D97" s="6"/>
       <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F97" s="70"/>
+      <c r="G97" s="68"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="6"/>
+      <c r="G99" s="32"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
-      <c r="J99" s="37"/>
-      <c r="K99" s="44"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J99" s="6"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="42"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="42" t="s">
+      <c r="G100" s="7"/>
+      <c r="H100" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="H100" s="42" t="s">
+      <c r="I100" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="I100" s="42" t="s">
+      <c r="J100" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J100" s="42" t="s">
+      <c r="K100" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="K100" s="7"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="7"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="45">
+      <c r="G101" s="7"/>
+      <c r="H101" s="43">
+        <v>0</v>
+      </c>
+      <c r="I101" s="71">
+        <v>280</v>
+      </c>
+      <c r="J101" s="52">
+        <v>280</v>
+      </c>
+      <c r="K101" s="40"/>
+      <c r="L101" s="7"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B102" s="1"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="43">
         <v>1</v>
       </c>
-      <c r="H101" s="54">
-        <v>280</v>
-      </c>
-      <c r="I101" s="54">
-        <v>270</v>
-      </c>
-      <c r="J101" s="52">
-        <f>SUMIF(T2:T85, "1", U2:U85)</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="K101" s="7"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="1"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="43" t="s">
+      <c r="I102" s="52">
+        <v>245</v>
+      </c>
+      <c r="J102" s="52">
+        <v>269</v>
+      </c>
+      <c r="K102" s="50">
+        <f>SUMIF(U2:U85, "1", V2:V85)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L102" s="7"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="H102" s="55">
-        <f>SUM(280-35)</f>
-        <v>245</v>
-      </c>
-      <c r="I102" s="56"/>
-      <c r="J102" s="52">
-        <f>SUMIF(T2:T85, "2", U2:U85)</f>
-        <v>0</v>
-      </c>
-      <c r="K102" s="7"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B103" s="1"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="43" t="s">
+      <c r="I103" s="53">
+        <f>SUM(245-35)</f>
+        <v>210</v>
+      </c>
+      <c r="J103" s="54"/>
+      <c r="K103" s="50">
+        <f>SUMIF(U2:U85, "2", V2:V85)</f>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="L103" s="7"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B104" s="1"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="H103" s="55">
-        <f t="shared" ref="H103:H109" si="4">SUM(H102-35)</f>
-        <v>210</v>
-      </c>
-      <c r="I103" s="56"/>
-      <c r="J103" s="52">
-        <f>SUMIF(T2:T85, "3", U2:U85)</f>
-        <v>0</v>
-      </c>
-      <c r="K103" s="7"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B104" s="1"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="43" t="s">
+      <c r="I104" s="53">
+        <f t="shared" ref="I104:I110" si="6">SUM(I103-35)</f>
+        <v>175</v>
+      </c>
+      <c r="J104" s="54"/>
+      <c r="K104" s="50">
+        <f>SUMIF(U2:U85, "3", V2:V85)</f>
+        <v>0</v>
+      </c>
+      <c r="L104" s="7"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B105" s="1"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="H104" s="55">
-        <f t="shared" si="4"/>
-        <v>175</v>
-      </c>
-      <c r="I104" s="56"/>
-      <c r="J104" s="52">
-        <f>SUMIF(T2:T85, "4", U2:U85)</f>
-        <v>0</v>
-      </c>
-      <c r="K104" s="7"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F105" s="7"/>
-      <c r="G105" s="43" t="s">
+      <c r="I105" s="53">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="J105" s="54"/>
+      <c r="K105" s="50">
+        <f>SUMIF(U2:U85, "4", V2:V85)</f>
+        <v>0</v>
+      </c>
+      <c r="L105" s="7"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G106" s="7"/>
+      <c r="H106" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="H105" s="55">
-        <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="I105" s="56"/>
-      <c r="J105" s="52">
-        <f>SUMIF(T2:T85, "5", U2:U85)</f>
-        <v>0</v>
-      </c>
-      <c r="K105" s="7"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F106" s="7"/>
-      <c r="G106" s="43" t="s">
+      <c r="I106" s="53">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="J106" s="54"/>
+      <c r="K106" s="50">
+        <f>SUMIF(U2:U85, "5", V2:V85)</f>
+        <v>0</v>
+      </c>
+      <c r="L106" s="7"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G107" s="7"/>
+      <c r="H107" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H106" s="55">
-        <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="I106" s="56"/>
-      <c r="J106" s="52">
-        <f>SUMIF(T2:T85, "6", U2:U85)</f>
-        <v>0</v>
-      </c>
-      <c r="K106" s="7"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F107" s="7"/>
-      <c r="G107" s="43" t="s">
+      <c r="I107" s="53">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="J107" s="54"/>
+      <c r="K107" s="50">
+        <f>SUMIF(U2:U85, "6", V2:V85)</f>
+        <v>0</v>
+      </c>
+      <c r="L107" s="7"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G108" s="7"/>
+      <c r="H108" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="H107" s="55">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="I107" s="56"/>
-      <c r="J107" s="52">
-        <f>SUMIF(T2:T85, "7", U2:U85)</f>
-        <v>0</v>
-      </c>
-      <c r="K107" s="7"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F108" s="7"/>
-      <c r="G108" s="43" t="s">
+      <c r="I108" s="53">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="J108" s="54"/>
+      <c r="K108" s="50">
+        <f>SUMIF(U2:U85, "7", V2:V85)</f>
+        <v>0</v>
+      </c>
+      <c r="L108" s="7"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G109" s="7"/>
+      <c r="H109" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="H108" s="55">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="I108" s="56"/>
-      <c r="J108" s="52">
-        <f>SUMIF(T2:T85, "8", U2:U85)</f>
-        <v>0</v>
-      </c>
-      <c r="K108" s="7"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F109" s="7"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I109" s="57"/>
-      <c r="J109" s="53"/>
-      <c r="K109" s="7"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F110" s="13"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="J111" s="41"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F112" s="41"/>
-      <c r="G112" s="41"/>
+      <c r="I109" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="54"/>
+      <c r="K109" s="50">
+        <f>SUMIF(U2:U85, "8", V2:V85)</f>
+        <v>0</v>
+      </c>
+      <c r="L109" s="7"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G110" s="7"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="53"/>
+      <c r="J110" s="55"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="7"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G111" s="13"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
+      <c r="K112" s="39"/>
+    </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S2:S85">
+  <conditionalFormatting sqref="T2:T85">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -5642,8 +6076,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="S2 S3:S81 S82:S84 U2:U85" formulaRange="1"/>
-    <ignoredError sqref="G102:G108" numberStoredAsText="1"/>
+    <ignoredError sqref="T2 T3:T81 T82:T84" formulaRange="1"/>
+    <ignoredError sqref="H103:H109" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Tijd diagram sprint 3 .xlsx
+++ b/Tijd diagram sprint 3 .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Beeren\Documents\GitHub\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4845CCCA-9BDD-4A73-9118-15331B4BA030}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6585DF36-3924-4079-B84D-23DFCD16E3E8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{ED121A58-3D00-4357-8DE2-C1E001567F3D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
   <si>
     <t>BacklogItem</t>
   </si>
@@ -304,6 +304,18 @@
   </si>
   <si>
     <t>php profielpagina</t>
+  </si>
+  <si>
+    <t>Ontwerp rapport maken Sprint 3</t>
+  </si>
+  <si>
+    <t>Einde dag</t>
+  </si>
+  <si>
+    <t>Daadwerkelijk gewerkt</t>
+  </si>
+  <si>
+    <t>Responsive maken upload pagina</t>
   </si>
 </sst>
 </file>
@@ -367,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -560,23 +572,32 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -584,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -670,23 +691,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,16 +723,79 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -815,7 +888,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$I$100</c:f>
+              <c:f>Blad1!$J$100</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -837,10 +910,11 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Blad1!$H$101:$H$110</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
+            <c:numRef>
+              <c:f>Blad1!$I$101:$I$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -868,12 +942,12 @@
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$I$101:$I$110</c:f>
+              <c:f>Blad1!$J$101:$J$110</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -935,11 +1009,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$J$100</c:f>
+              <c:f>Blad1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Over</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -957,10 +1031,11 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Blad1!$H$101:$H$110</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
+            <c:numRef>
+              <c:f>Blad1!$I$101:$I$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -988,20 +1063,23 @@
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$J$101:$J$110</c:f>
+              <c:f>Blad1!$L$115:$L$123</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>269</c:v>
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2004,13 +2082,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1325181</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>41150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>97692</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>80818</xdr:rowOff>
@@ -2338,10 +2416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EA0DA6-8752-44E6-9604-3DF87F38EE9D}">
-  <dimension ref="A1:W113"/>
+  <dimension ref="A1:X125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E92" zoomScale="77" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2350,19 +2428,21 @@
     <col min="2" max="2" width="53.21875" customWidth="1"/>
     <col min="3" max="3" width="4.77734375" customWidth="1"/>
     <col min="4" max="4" width="59.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" customWidth="1"/>
-    <col min="13" max="13" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.77734375" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.77734375" customWidth="1"/>
+    <col min="21" max="21" width="4.33203125" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="15" t="s">
         <v>0</v>
@@ -2371,57 +2451,58 @@
       <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="3" t="s">
+      <c r="T1" s="22"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="10"/>
-    </row>
-    <row r="2" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="X1" s="10"/>
+    </row>
+    <row r="2" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="30" t="s">
         <v>32</v>
@@ -2430,414 +2511,445 @@
       <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="9"/>
+      <c r="F2" s="53">
         <v>4</v>
       </c>
-      <c r="F2" s="56">
-        <f>TIME(E2,0,0)</f>
+      <c r="G2" s="49">
+        <f>TIME(F2,0,0)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="11"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="12"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="23"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45">
-        <f>COUNTA(G2:R2)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="12">
-        <f>SUM(G2:K2,N2:R2)</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S2" s="12"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="45">
+        <f t="shared" ref="U2:U33" si="0">COUNTA(H2:S2)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="23"/>
+      <c r="W2" s="12">
+        <f t="shared" ref="W2:W33" si="1">SUM(H2:L2,O2:S2)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="30"/>
       <c r="C3" s="7"/>
       <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="9"/>
+      <c r="F3" s="54">
         <v>2</v>
       </c>
-      <c r="F3" s="56">
-        <f>TIME(E3,0,0)</f>
+      <c r="G3" s="49">
+        <f>TIME(F3,0,0)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="11"/>
+      <c r="H3" s="51">
+        <v>0.125</v>
+      </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="12"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="23"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="46">
-        <f>COUNTA(G3:R3)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="23"/>
-      <c r="V3" s="12">
-        <f>SUM(G3:K3,N3:R3)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="7"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S3" s="12"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V3" s="23">
+        <v>3</v>
+      </c>
+      <c r="W3" s="12">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="X3" s="7"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="30"/>
       <c r="C4" s="7"/>
       <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="9"/>
+      <c r="F4" s="54">
         <v>4</v>
       </c>
-      <c r="F4" s="56">
-        <f>TIME(E4,0,0)</f>
+      <c r="G4" s="49">
+        <f>TIME(F4,0,0)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G4" s="58">
+      <c r="H4" s="51">
         <v>0.125</v>
       </c>
-      <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="12"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="23"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="46">
-        <f>COUNTA(G4:R4)</f>
+      <c r="S4" s="12"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="45">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U4" s="23">
+      <c r="V4" s="23">
         <v>2</v>
       </c>
-      <c r="V4" s="12">
-        <f>SUM(G4:K4,N4:R4)</f>
+      <c r="W4" s="12">
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="W4" s="7"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="30"/>
       <c r="C5" s="7"/>
       <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="9"/>
+      <c r="F5" s="54">
         <v>1</v>
       </c>
-      <c r="F5" s="56">
-        <f>TIME(E5,0,0)</f>
+      <c r="G5" s="49">
+        <f>TIME(F5,0,0)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="11"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="11">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="12"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="23"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="46">
-        <f>COUNTA(G5:R5)</f>
+      <c r="S5" s="12"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="45">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U5" s="23">
+      <c r="V5" s="23">
         <v>1</v>
       </c>
-      <c r="V5" s="12">
-        <f t="shared" ref="V5:V68" si="0">SUM(G5:K5,N5:R5)</f>
+      <c r="W5" s="12">
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="W5" s="7"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5" s="7"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="30"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="9"/>
+      <c r="F6" s="54">
         <v>1</v>
       </c>
-      <c r="F6" s="56">
-        <f t="shared" ref="F6:F69" si="1">TIME(E6,0,0)</f>
+      <c r="G6" s="49">
+        <f t="shared" ref="G6:G69" si="2">TIME(F6,0,0)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="12"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="23"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="46">
-        <f t="shared" ref="T6:T69" si="2">COUNTA(G6:R6)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="23"/>
-      <c r="V6" s="12">
+      <c r="S6" s="12"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="7"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V6" s="23"/>
+      <c r="W6" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="7"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="30"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="9"/>
+      <c r="F7" s="54">
         <v>1</v>
       </c>
-      <c r="F7" s="56">
-        <f t="shared" si="1"/>
+      <c r="G7" s="49">
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="51">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="12"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="23"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="12">
+      <c r="S7" s="12"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="7"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="V7" s="23">
+        <v>3</v>
+      </c>
+      <c r="W7" s="12">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="X7" s="7"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="30"/>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="9"/>
+      <c r="F8" s="54">
         <v>2</v>
       </c>
-      <c r="F8" s="56">
-        <f t="shared" si="1"/>
+      <c r="G8" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="51">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="12"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="23"/>
-      <c r="V8" s="12">
+      <c r="S8" s="12"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="7"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="V8" s="23">
+        <v>3</v>
+      </c>
+      <c r="W8" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="X8" s="7"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="30"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="9"/>
+      <c r="F9" s="54">
         <v>2</v>
       </c>
-      <c r="F9" s="56">
-        <f t="shared" si="1"/>
+      <c r="G9" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="51">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="12"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="23"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="23"/>
-      <c r="V9" s="12">
+      <c r="S9" s="12"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="7"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="V9" s="23">
+        <v>3</v>
+      </c>
+      <c r="W9" s="12">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="X9" s="7"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="30"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="11"/>
+      <c r="D10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="54">
+        <v>2</v>
+      </c>
+      <c r="G10" s="49">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H10" s="51"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="12"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="23"/>
-      <c r="V10" s="12">
+      <c r="S10" s="12"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W10" s="7"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V10" s="23"/>
+      <c r="W10" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="7"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="30"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="11"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="51"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="12"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="23"/>
-      <c r="V11" s="12">
+      <c r="S11" s="12"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W11" s="7"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V11" s="23"/>
+      <c r="W11" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="7"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="30"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="11"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="51"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="12"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="23"/>
-      <c r="V12" s="12">
+      <c r="S12" s="12"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W12" s="7"/>
-    </row>
-    <row r="13" spans="1:23" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V12" s="23"/>
+      <c r="W12" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="7"/>
+    </row>
+    <row r="13" spans="1:24" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="30" t="s">
         <v>35</v>
@@ -2846,322 +2958,335 @@
       <c r="D13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="9"/>
+      <c r="F13" s="54">
         <v>4</v>
       </c>
-      <c r="F13" s="56">
-        <f t="shared" si="1"/>
+      <c r="G13" s="49">
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="11"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="12"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="23"/>
-      <c r="V13" s="12">
+      <c r="S13" s="12"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W13" s="7"/>
-    </row>
-    <row r="14" spans="1:23" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V13" s="23"/>
+      <c r="W13" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="7"/>
+    </row>
+    <row r="14" spans="1:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="30"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="9"/>
+      <c r="F14" s="54">
         <v>4</v>
       </c>
-      <c r="F14" s="56">
-        <f t="shared" si="1"/>
+      <c r="G14" s="49">
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="12"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="23"/>
-      <c r="V14" s="12">
+      <c r="S14" s="12"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W14" s="7"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V14" s="23"/>
+      <c r="W14" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="30"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="9"/>
+      <c r="F15" s="54">
         <v>3</v>
       </c>
-      <c r="F15" s="56">
-        <f t="shared" si="1"/>
+      <c r="G15" s="49">
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="G15" s="58"/>
-      <c r="H15" s="11"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="12"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="23"/>
-      <c r="V15" s="12">
+      <c r="S15" s="12"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W15" s="7"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V15" s="23"/>
+      <c r="W15" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="7"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="30"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="9"/>
+      <c r="F16" s="54">
         <v>2</v>
       </c>
-      <c r="F16" s="56">
-        <f t="shared" si="1"/>
+      <c r="G16" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="11"/>
+      <c r="H16" s="51">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="12"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="23"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="23"/>
-      <c r="V16" s="12">
+      <c r="S16" s="12"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="7"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="V16" s="23">
+        <v>3</v>
+      </c>
+      <c r="W16" s="12">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="X16" s="7"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="30"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="11"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="51"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="12"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="23"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="23"/>
-      <c r="V17" s="12">
+      <c r="S17" s="12"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W17" s="7"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V17" s="23"/>
+      <c r="W17" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="7"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="30"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="51"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="12"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="23"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="23"/>
-      <c r="V18" s="12">
+      <c r="S18" s="12"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W18" s="7"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V18" s="23"/>
+      <c r="W18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="7"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="30"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="11"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="51"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="12"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="23"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="23"/>
-      <c r="V19" s="12">
+      <c r="S19" s="12"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W19" s="7"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V19" s="23"/>
+      <c r="W19" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="7"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="30"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="11"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="51"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="12"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="23"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="23"/>
-      <c r="V20" s="12">
+      <c r="S20" s="12"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W20" s="7"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V20" s="23"/>
+      <c r="W20" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="7"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="30"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="11"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="51"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="12"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="23"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="23"/>
-      <c r="V21" s="12">
+      <c r="S21" s="12"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W21" s="7"/>
-    </row>
-    <row r="22" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V21" s="23"/>
+      <c r="W21" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="7"/>
+    </row>
+    <row r="22" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="30" t="s">
         <v>41</v>
@@ -3170,254 +3295,269 @@
       <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="9"/>
+      <c r="F22" s="54">
         <v>2</v>
       </c>
-      <c r="F22" s="56">
-        <f t="shared" si="1"/>
+      <c r="G22" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="12"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="23"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="23"/>
-      <c r="V22" s="12">
+      <c r="S22" s="12"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W22" s="7"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V22" s="23"/>
+      <c r="W22" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="7"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="30"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="9"/>
+      <c r="F23" s="54">
         <v>2</v>
       </c>
-      <c r="F23" s="56">
-        <f t="shared" si="1"/>
+      <c r="G23" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="11"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="12"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="23"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="23"/>
-      <c r="V23" s="12">
+      <c r="S23" s="12"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W23" s="7"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V23" s="23"/>
+      <c r="W23" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="30"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="9"/>
+      <c r="F24" s="54">
         <v>1</v>
       </c>
-      <c r="F24" s="56">
-        <f t="shared" si="1"/>
+      <c r="G24" s="49">
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="11"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="12"/>
+      <c r="K24" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="23"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="23"/>
-      <c r="V24" s="12">
+      <c r="S24" s="12"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="7"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="V24" s="23">
+        <v>3</v>
+      </c>
+      <c r="W24" s="12">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="X24" s="7"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="30"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="9"/>
+      <c r="F25" s="54">
         <v>1</v>
       </c>
-      <c r="F25" s="56">
-        <f t="shared" si="1"/>
+      <c r="G25" s="49">
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="11"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="12"/>
+      <c r="K25" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="23"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="23"/>
-      <c r="V25" s="12">
+      <c r="S25" s="12"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="7"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="V25" s="23">
+        <v>2</v>
+      </c>
+      <c r="W25" s="12">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="X25" s="7"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="30"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="11"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="51"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="12"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="23"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="23"/>
-      <c r="V26" s="12">
+      <c r="S26" s="12"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W26" s="7"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V26" s="23"/>
+      <c r="W26" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="7"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="30"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="11"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="51"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="12"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="23"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="23"/>
-      <c r="V27" s="12">
+      <c r="S27" s="12"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W27" s="7"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V27" s="23"/>
+      <c r="W27" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="7"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="30"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="11"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="51"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="12"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="23"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="23"/>
-      <c r="V28" s="12">
+      <c r="S28" s="12"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W28" s="7"/>
-    </row>
-    <row r="29" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V28" s="23"/>
+      <c r="W28" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="7"/>
+    </row>
+    <row r="29" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="30" t="s">
         <v>36</v>
@@ -3426,330 +3566,339 @@
       <c r="D29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="9"/>
+      <c r="F29" s="54">
         <v>2</v>
       </c>
-      <c r="F29" s="56">
-        <f t="shared" si="1"/>
+      <c r="G29" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="11"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="12"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="23"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="46">
-        <f t="shared" si="2"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="45">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U29" s="23">
-        <v>1</v>
-      </c>
-      <c r="V29" s="12">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="W29" s="7"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V29" s="23">
+        <v>2</v>
+      </c>
+      <c r="W29" s="12">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X29" s="7"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="30"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="9"/>
+      <c r="F30" s="54">
         <v>2</v>
       </c>
-      <c r="F30" s="56">
-        <f t="shared" si="1"/>
+      <c r="G30" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G30" s="58"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="12"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="23"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="23"/>
-      <c r="V30" s="12">
+      <c r="S30" s="12"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W30" s="7"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V30" s="23"/>
+      <c r="W30" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="7"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="30"/>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31" s="9"/>
+      <c r="F31" s="54">
         <v>2</v>
       </c>
-      <c r="F31" s="56">
-        <f t="shared" si="1"/>
+      <c r="G31" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="11"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="12"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="23"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="23"/>
-      <c r="V31" s="12">
+      <c r="S31" s="12"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W31" s="7"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V31" s="23"/>
+      <c r="W31" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="7"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="30"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="9"/>
+      <c r="F32" s="54">
         <v>2</v>
       </c>
-      <c r="F32" s="56">
-        <f t="shared" si="1"/>
+      <c r="G32" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="11"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="12"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="23"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="23"/>
-      <c r="V32" s="12">
+      <c r="S32" s="12"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W32" s="7"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V32" s="23"/>
+      <c r="W32" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="7"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="30"/>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="9"/>
+      <c r="F33" s="54">
         <v>1</v>
       </c>
-      <c r="F33" s="56">
-        <f t="shared" si="1"/>
+      <c r="G33" s="49">
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G33" s="58"/>
-      <c r="H33" s="11"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="12"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="23"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="23"/>
-      <c r="V33" s="12">
+      <c r="S33" s="12"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W33" s="7"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V33" s="23"/>
+      <c r="W33" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="7"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="30"/>
       <c r="C34" s="7"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="58"/>
-      <c r="H34" s="11"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="51"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="12"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="23"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="23"/>
-      <c r="V34" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="7"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S34" s="12"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="45">
+        <f t="shared" ref="U34:U65" si="3">COUNTA(H34:S34)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="23"/>
+      <c r="W34" s="12">
+        <f t="shared" ref="W34:W65" si="4">SUM(H34:L34,O34:S34)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="7"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="30"/>
       <c r="C35" s="7"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="58"/>
-      <c r="H35" s="11"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="51"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="12"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="23"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="23"/>
-      <c r="V35" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="7"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S35" s="12"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="23"/>
+      <c r="W35" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="7"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="30"/>
       <c r="C36" s="7"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="58"/>
-      <c r="H36" s="11"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="51"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="12"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="23"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="23"/>
-      <c r="V36" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="7"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S36" s="12"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="23"/>
+      <c r="W36" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="7"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="30"/>
       <c r="C37" s="7"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="58"/>
-      <c r="H37" s="11"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="51"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="12"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="23"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="23"/>
-      <c r="V37" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="7"/>
-    </row>
-    <row r="38" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S37" s="12"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="23"/>
+      <c r="W37" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="7"/>
+    </row>
+    <row r="38" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="30" t="s">
         <v>37</v>
@@ -3758,322 +3907,331 @@
       <c r="D38" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="9"/>
+      <c r="F38" s="54">
         <v>2</v>
       </c>
-      <c r="F38" s="56">
-        <f t="shared" si="1"/>
+      <c r="G38" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G38" s="58"/>
-      <c r="H38" s="11"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="12"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="23"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="23"/>
-      <c r="V38" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="7"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S38" s="12"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="23"/>
+      <c r="W38" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="7"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="30"/>
       <c r="C39" s="7"/>
       <c r="D39" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="61">
+      <c r="E39" s="9"/>
+      <c r="F39" s="54">
         <v>4</v>
       </c>
-      <c r="F39" s="56">
-        <f t="shared" si="1"/>
+      <c r="G39" s="49">
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G39" s="58">
+      <c r="H39" s="51">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="12"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="23"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="46">
-        <f t="shared" si="2"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U39" s="23">
+      <c r="V39" s="23">
         <v>2</v>
       </c>
-      <c r="V39" s="12">
-        <f t="shared" si="0"/>
+      <c r="W39" s="12">
+        <f t="shared" si="4"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="W39" s="7"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X39" s="7"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="30"/>
       <c r="C40" s="7"/>
       <c r="D40" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="61">
+      <c r="E40" s="9"/>
+      <c r="F40" s="54">
         <v>3</v>
       </c>
-      <c r="F40" s="56">
-        <f t="shared" si="1"/>
+      <c r="G40" s="49">
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="G40" s="58"/>
-      <c r="H40" s="11"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="12"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="23"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="23"/>
-      <c r="V40" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="7"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S40" s="12"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="23"/>
+      <c r="W40" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="7"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="30"/>
       <c r="C41" s="7"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="58"/>
-      <c r="H41" s="11"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="51"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="12"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="23"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="23"/>
-      <c r="V41" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="7"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S41" s="12"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="23"/>
+      <c r="W41" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="7"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="30"/>
       <c r="C42" s="7"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="58"/>
-      <c r="H42" s="11"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="51"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="12"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="23"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="23"/>
-      <c r="V42" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="7"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S42" s="12"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="23"/>
+      <c r="W42" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="7"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="30"/>
       <c r="C43" s="7"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="58"/>
-      <c r="H43" s="11"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="51"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="12"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="23"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="23"/>
-      <c r="V43" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="7"/>
-    </row>
-    <row r="44" spans="1:23" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S43" s="12"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="23"/>
+      <c r="W43" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="7"/>
+    </row>
+    <row r="44" spans="1:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="30"/>
       <c r="C44" s="7"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="58"/>
-      <c r="H44" s="11"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="51"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="12"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="23"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="23"/>
-      <c r="V44" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="7"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S44" s="12"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="23"/>
+      <c r="W44" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="7"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="30"/>
       <c r="C45" s="7"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="58"/>
-      <c r="H45" s="11"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="51"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="12"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="23"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U45" s="23"/>
-      <c r="V45" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W45" s="7"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S45" s="12"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="23"/>
+      <c r="W45" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="7"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="30"/>
       <c r="C46" s="7"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="58"/>
-      <c r="H46" s="11"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="51"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="12"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="23"/>
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
       <c r="R46" s="12"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="23"/>
-      <c r="V46" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W46" s="7"/>
-    </row>
-    <row r="47" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S46" s="12"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="23"/>
+      <c r="W46" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="7"/>
+    </row>
+    <row r="47" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="30" t="s">
         <v>38</v>
@@ -4082,274 +4240,289 @@
       <c r="D47" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="61">
+      <c r="E47" s="9"/>
+      <c r="F47" s="54">
         <v>2</v>
       </c>
-      <c r="F47" s="56">
-        <f t="shared" si="1"/>
+      <c r="G47" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G47" s="58">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H47" s="11"/>
+      <c r="H47" s="51">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="12"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="23"/>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="46">
-        <f t="shared" si="2"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U47" s="23">
+      <c r="V47" s="23">
         <v>1</v>
       </c>
-      <c r="V47" s="12">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="W47" s="7"/>
-    </row>
-    <row r="48" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W47" s="12">
+        <f t="shared" si="4"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="X47" s="7"/>
+    </row>
+    <row r="48" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="30"/>
       <c r="C48" s="7"/>
       <c r="D48" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="9"/>
+      <c r="F48" s="54">
         <v>4</v>
       </c>
-      <c r="F48" s="56">
-        <f t="shared" si="1"/>
+      <c r="G48" s="49">
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G48" s="58">
+      <c r="H48" s="51">
         <v>6.25E-2</v>
       </c>
-      <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
+      <c r="J48" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="K48" s="11"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="12"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="23"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="46">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U48" s="23">
+      <c r="S48" s="12"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="45">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V48" s="12">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="W48" s="7"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V48" s="23">
+        <v>2</v>
+      </c>
+      <c r="W48" s="12">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="X48" s="7"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="30"/>
       <c r="C49" s="7"/>
       <c r="D49" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="61">
+      <c r="E49" s="9"/>
+      <c r="F49" s="54">
         <v>3</v>
       </c>
-      <c r="F49" s="56">
-        <f t="shared" si="1"/>
+      <c r="G49" s="49">
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="G49" s="58"/>
-      <c r="H49" s="11"/>
+      <c r="H49" s="51"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
+      <c r="J49" s="11">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="K49" s="11"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="12"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="23"/>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
       <c r="R49" s="12"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="23"/>
-      <c r="V49" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W49" s="7"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S49" s="12"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V49" s="23">
+        <v>2</v>
+      </c>
+      <c r="W49" s="12">
+        <f t="shared" si="4"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="X49" s="7"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="30"/>
       <c r="C50" s="7"/>
       <c r="D50" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="61">
+      <c r="E50" s="9"/>
+      <c r="F50" s="54">
         <v>3</v>
       </c>
-      <c r="F50" s="56">
-        <f t="shared" si="1"/>
+      <c r="G50" s="49">
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="G50" s="58"/>
-      <c r="H50" s="11"/>
+      <c r="H50" s="51"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="12"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="23"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="23"/>
-      <c r="V50" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W50" s="7"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S50" s="12"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="23"/>
+      <c r="W50" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="7"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="30"/>
       <c r="C51" s="7"/>
       <c r="D51" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="9"/>
+      <c r="F51" s="54">
         <v>3</v>
       </c>
-      <c r="F51" s="56">
-        <f t="shared" si="1"/>
+      <c r="G51" s="49">
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="G51" s="58"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J51" s="11"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11">
+        <v>0.125</v>
+      </c>
       <c r="K51" s="11"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="12"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="23"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="46">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U51" s="23">
-        <v>1</v>
-      </c>
-      <c r="V51" s="12">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="W51" s="7"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="R51" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="S51" s="12"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="45">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V51" s="23">
+        <v>2</v>
+      </c>
+      <c r="W51" s="12">
+        <f t="shared" si="4"/>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X51" s="7"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="30"/>
       <c r="C52" s="7"/>
       <c r="D52" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="61">
+      <c r="E52" s="9"/>
+      <c r="F52" s="54">
         <v>4</v>
       </c>
-      <c r="F52" s="56">
-        <f t="shared" si="1"/>
+      <c r="G52" s="49">
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G52" s="58"/>
-      <c r="H52" s="11"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="12"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="23"/>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U52" s="23"/>
-      <c r="V52" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W52" s="7"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S52" s="12"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="23"/>
+      <c r="W52" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="7"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="30"/>
       <c r="C53" s="7"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="11"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="51"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="12"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="23"/>
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="23"/>
-      <c r="V53" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W53" s="7"/>
-    </row>
-    <row r="54" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="S53" s="12"/>
+      <c r="T53" s="44"/>
+      <c r="U53" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="23"/>
+      <c r="W53" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="7"/>
+    </row>
+    <row r="54" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="30" t="s">
         <v>39</v>
@@ -4358,178 +4531,183 @@
       <c r="D54" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="61">
+      <c r="E54" s="9"/>
+      <c r="F54" s="54">
         <v>2</v>
       </c>
-      <c r="F54" s="56">
-        <f t="shared" si="1"/>
+      <c r="G54" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G54" s="58"/>
-      <c r="H54" s="11"/>
+      <c r="H54" s="51"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="12"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="23"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="23"/>
-      <c r="V54" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W54" s="7"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S54" s="12"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="23"/>
+      <c r="W54" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="7"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="30"/>
       <c r="C55" s="7"/>
       <c r="D55" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E55" s="61">
+      <c r="E55" s="9"/>
+      <c r="F55" s="54">
         <v>2</v>
       </c>
-      <c r="F55" s="56">
-        <f t="shared" si="1"/>
+      <c r="G55" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G55" s="58"/>
-      <c r="H55" s="11"/>
+      <c r="H55" s="51"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="12"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="23"/>
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U55" s="23"/>
-      <c r="V55" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W55" s="7"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S55" s="12"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="23"/>
+      <c r="W55" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="7"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="30"/>
       <c r="C56" s="7"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="58"/>
-      <c r="H56" s="11"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="51"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="12"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="23"/>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
-      <c r="S56" s="44"/>
-      <c r="T56" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U56" s="23"/>
-      <c r="V56" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W56" s="7"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S56" s="12"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="23"/>
+      <c r="W56" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="7"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="30"/>
       <c r="C57" s="7"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="58"/>
-      <c r="H57" s="11"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="51"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="12"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="23"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
-      <c r="S57" s="44"/>
-      <c r="T57" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="23"/>
-      <c r="V57" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W57" s="7"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S57" s="12"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="23"/>
+      <c r="W57" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="7"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="30"/>
       <c r="C58" s="7"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="58"/>
-      <c r="H58" s="11"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="51"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="12"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="23"/>
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
-      <c r="S58" s="44"/>
-      <c r="T58" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U58" s="23"/>
-      <c r="V58" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W58" s="7"/>
-    </row>
-    <row r="59" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="S58" s="12"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="23"/>
+      <c r="W58" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="7"/>
+    </row>
+    <row r="59" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="30" t="s">
         <v>40</v>
@@ -4538,178 +4716,183 @@
       <c r="D59" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="61">
+      <c r="E59" s="9"/>
+      <c r="F59" s="54">
         <v>1</v>
       </c>
-      <c r="F59" s="56">
-        <f t="shared" si="1"/>
+      <c r="G59" s="49">
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G59" s="58"/>
-      <c r="H59" s="11"/>
+      <c r="H59" s="51"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="12"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="23"/>
       <c r="O59" s="12"/>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
       <c r="R59" s="12"/>
-      <c r="S59" s="44"/>
-      <c r="T59" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U59" s="23"/>
-      <c r="V59" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W59" s="7"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S59" s="12"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="23"/>
+      <c r="W59" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X59" s="7"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="30"/>
       <c r="C60" s="7"/>
       <c r="D60" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="61">
+      <c r="E60" s="9"/>
+      <c r="F60" s="54">
         <v>3</v>
       </c>
-      <c r="F60" s="56">
-        <f t="shared" si="1"/>
+      <c r="G60" s="49">
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="G60" s="58"/>
-      <c r="H60" s="11"/>
+      <c r="H60" s="51"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="12"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="23"/>
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
-      <c r="S60" s="44"/>
-      <c r="T60" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U60" s="23"/>
-      <c r="V60" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W60" s="7"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S60" s="12"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="23"/>
+      <c r="W60" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X60" s="7"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="30"/>
       <c r="C61" s="7"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="58"/>
-      <c r="H61" s="11"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="51"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="12"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="23"/>
       <c r="O61" s="12"/>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
       <c r="R61" s="12"/>
-      <c r="S61" s="44"/>
-      <c r="T61" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U61" s="23"/>
-      <c r="V61" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W61" s="7"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S61" s="12"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="23"/>
+      <c r="W61" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X61" s="7"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="30"/>
       <c r="C62" s="7"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="58"/>
-      <c r="H62" s="11"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="51"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="12"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="23"/>
       <c r="O62" s="12"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
-      <c r="S62" s="44"/>
-      <c r="T62" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U62" s="23"/>
-      <c r="V62" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W62" s="7"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S62" s="12"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V62" s="23"/>
+      <c r="W62" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X62" s="7"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="30"/>
       <c r="C63" s="7"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="58"/>
-      <c r="H63" s="11"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="51"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="12"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="23"/>
       <c r="O63" s="12"/>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
       <c r="R63" s="12"/>
-      <c r="S63" s="44"/>
-      <c r="T63" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U63" s="23"/>
-      <c r="V63" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W63" s="7"/>
-    </row>
-    <row r="64" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S63" s="12"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="23"/>
+      <c r="W63" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="7"/>
+    </row>
+    <row r="64" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="30" t="s">
         <v>42</v>
@@ -4718,250 +4901,257 @@
       <c r="D64" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E64" s="61">
+      <c r="E64" s="9"/>
+      <c r="F64" s="54">
         <v>2</v>
       </c>
-      <c r="F64" s="56">
-        <f t="shared" si="1"/>
+      <c r="G64" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G64" s="58"/>
-      <c r="H64" s="11"/>
+      <c r="H64" s="51"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="12"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="23"/>
       <c r="O64" s="12"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="12"/>
-      <c r="S64" s="44"/>
-      <c r="T64" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U64" s="23"/>
-      <c r="V64" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W64" s="7"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S64" s="12"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="23"/>
+      <c r="W64" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="7"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="30"/>
       <c r="C65" s="7"/>
       <c r="D65" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E65" s="61">
+      <c r="E65" s="9"/>
+      <c r="F65" s="54">
         <v>2</v>
       </c>
-      <c r="F65" s="56">
-        <f t="shared" si="1"/>
+      <c r="G65" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G65" s="58"/>
-      <c r="H65" s="11"/>
+      <c r="H65" s="51"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="12"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="23"/>
       <c r="O65" s="12"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="12"/>
-      <c r="S65" s="44"/>
-      <c r="T65" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="23"/>
-      <c r="V65" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W65" s="7"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S65" s="12"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="23"/>
+      <c r="W65" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="7"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="30"/>
       <c r="C66" s="7"/>
       <c r="D66" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E66" s="61">
+      <c r="E66" s="9"/>
+      <c r="F66" s="54">
         <v>2</v>
       </c>
-      <c r="F66" s="56">
-        <f t="shared" si="1"/>
+      <c r="G66" s="49">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G66" s="58"/>
-      <c r="H66" s="11"/>
+      <c r="H66" s="51"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="12"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="23"/>
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
       <c r="R66" s="12"/>
-      <c r="S66" s="44"/>
-      <c r="T66" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U66" s="23"/>
-      <c r="V66" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W66" s="7"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S66" s="12"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="45">
+        <f t="shared" ref="U66:U85" si="5">COUNTA(H66:S66)</f>
+        <v>0</v>
+      </c>
+      <c r="V66" s="23"/>
+      <c r="W66" s="12">
+        <f t="shared" ref="W66:W85" si="6">SUM(H66:L66,O66:S66)</f>
+        <v>0</v>
+      </c>
+      <c r="X66" s="7"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="30"/>
       <c r="C67" s="7"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="58"/>
-      <c r="H67" s="11"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="51"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="12"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="23"/>
       <c r="O67" s="12"/>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
       <c r="R67" s="12"/>
-      <c r="S67" s="44"/>
-      <c r="T67" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U67" s="23"/>
-      <c r="V67" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W67" s="7"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S67" s="12"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V67" s="23"/>
+      <c r="W67" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X67" s="7"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="30"/>
       <c r="C68" s="7"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="58"/>
-      <c r="H68" s="11"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="51"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="12"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="23"/>
       <c r="O68" s="12"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
       <c r="R68" s="12"/>
-      <c r="S68" s="44"/>
-      <c r="T68" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U68" s="23"/>
-      <c r="V68" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W68" s="7"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S68" s="12"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="23"/>
+      <c r="W68" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="7"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="30"/>
       <c r="C69" s="7"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="58"/>
-      <c r="H69" s="11"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="51"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="12"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="23"/>
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
-      <c r="S69" s="44"/>
-      <c r="T69" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="23"/>
-      <c r="V69" s="12">
-        <f t="shared" ref="V69:V85" si="3">SUM(G69:K69,N69:R69)</f>
-        <v>0</v>
-      </c>
-      <c r="W69" s="7"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S69" s="12"/>
+      <c r="T69" s="44"/>
+      <c r="U69" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="23"/>
+      <c r="W69" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="7"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="30"/>
       <c r="C70" s="7"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="56">
-        <f t="shared" ref="F70:F84" si="4">TIME(E70,0,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="58"/>
-      <c r="H70" s="11"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="49">
+        <f t="shared" ref="G70:G85" si="7">TIME(F70,0,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="51"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="12"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="23"/>
       <c r="O70" s="12"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="12"/>
       <c r="R70" s="12"/>
-      <c r="S70" s="44"/>
-      <c r="T70" s="46">
-        <f t="shared" ref="T70:T85" si="5">COUNTA(G70:R70)</f>
-        <v>0</v>
-      </c>
-      <c r="U70" s="23"/>
-      <c r="V70" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W70" s="7"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S70" s="12"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="23"/>
+      <c r="W70" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="7"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="30" t="s">
         <v>33</v>
@@ -4970,220 +5160,226 @@
       <c r="D71" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E71" s="61">
+      <c r="E71" s="9"/>
+      <c r="F71" s="54">
         <v>3</v>
       </c>
-      <c r="F71" s="56">
-        <f t="shared" si="4"/>
+      <c r="G71" s="49">
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
-      <c r="G71" s="58"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="11"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="16"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="12"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="23"/>
       <c r="O71" s="12"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
       <c r="R71" s="12"/>
-      <c r="S71" s="44"/>
-      <c r="T71" s="46">
+      <c r="S71" s="12"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U71" s="23"/>
-      <c r="V71" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W71" s="7"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V71" s="23"/>
+      <c r="W71" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X71" s="7"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="30"/>
       <c r="C72" s="7"/>
       <c r="D72" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E72" s="61">
+      <c r="E72" s="9"/>
+      <c r="F72" s="54">
         <v>4</v>
       </c>
-      <c r="F72" s="56">
-        <f t="shared" si="4"/>
+      <c r="G72" s="49">
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G72" s="58"/>
-      <c r="H72" s="11">
+      <c r="H72" s="51"/>
+      <c r="I72" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="23"/>
-      <c r="N72" s="12"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="23"/>
       <c r="O72" s="12"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
       <c r="R72" s="12"/>
-      <c r="S72" s="44"/>
-      <c r="T72" s="46">
+      <c r="S72" s="12"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="45">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="U72" s="23">
+      <c r="V72" s="23">
         <v>1</v>
       </c>
-      <c r="V72" s="12">
-        <f t="shared" si="3"/>
+      <c r="W72" s="12">
+        <f t="shared" si="6"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="W72" s="7"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X72" s="7"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="30"/>
       <c r="C73" s="7"/>
       <c r="D73" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E73" s="61">
+      <c r="E73" s="9"/>
+      <c r="F73" s="54">
         <v>3</v>
       </c>
-      <c r="F73" s="56">
-        <f t="shared" si="4"/>
+      <c r="G73" s="49">
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
-      <c r="G73" s="58"/>
-      <c r="H73" s="11"/>
+      <c r="H73" s="51"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="12"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="23"/>
       <c r="O73" s="12"/>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
       <c r="R73" s="12"/>
-      <c r="S73" s="44"/>
-      <c r="T73" s="46">
+      <c r="S73" s="12"/>
+      <c r="T73" s="44"/>
+      <c r="U73" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U73" s="23"/>
-      <c r="V73" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W73" s="7"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V73" s="23"/>
+      <c r="W73" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X73" s="7"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="1"/>
       <c r="C74" s="7"/>
       <c r="D74" s="9"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="58"/>
-      <c r="H74" s="11"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="51"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="12"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="23"/>
       <c r="O74" s="12"/>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
       <c r="R74" s="12"/>
-      <c r="S74" s="44"/>
-      <c r="T74" s="46">
+      <c r="S74" s="12"/>
+      <c r="T74" s="44"/>
+      <c r="U74" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U74" s="23"/>
-      <c r="V74" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W74" s="7"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V74" s="23"/>
+      <c r="W74" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="7"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="1"/>
       <c r="C75" s="7"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="58"/>
-      <c r="H75" s="11"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="51"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="12"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="23"/>
       <c r="O75" s="12"/>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
-      <c r="S75" s="44"/>
-      <c r="T75" s="46">
+      <c r="S75" s="12"/>
+      <c r="T75" s="44"/>
+      <c r="U75" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U75" s="23"/>
-      <c r="V75" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W75" s="7"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V75" s="23"/>
+      <c r="W75" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X75" s="7"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="1"/>
       <c r="C76" s="7"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="58"/>
-      <c r="H76" s="11"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="51"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="12"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="23"/>
       <c r="O76" s="12"/>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
       <c r="R76" s="12"/>
-      <c r="S76" s="44"/>
-      <c r="T76" s="46">
+      <c r="S76" s="12"/>
+      <c r="T76" s="44"/>
+      <c r="U76" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U76" s="23"/>
-      <c r="V76" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W76" s="7"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V76" s="23"/>
+      <c r="W76" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X76" s="7"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="30" t="s">
         <v>62</v>
@@ -5192,409 +5388,441 @@
       <c r="D77" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E77" s="61">
+      <c r="E77" s="9"/>
+      <c r="F77" s="54">
         <v>8</v>
       </c>
-      <c r="F77" s="56">
-        <f t="shared" si="4"/>
+      <c r="G77" s="49">
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G77" s="58"/>
-      <c r="H77" s="11"/>
+      <c r="H77" s="51"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="12"/>
+      <c r="L77" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M77" s="7"/>
+      <c r="N77" s="23"/>
       <c r="O77" s="12"/>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
       <c r="R77" s="12"/>
-      <c r="S77" s="44"/>
-      <c r="T77" s="46">
+      <c r="S77" s="12"/>
+      <c r="T77" s="44"/>
+      <c r="U77" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="23"/>
-      <c r="V77" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W77" s="7"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="V77" s="23">
+        <v>2</v>
+      </c>
+      <c r="W77" s="12">
+        <f t="shared" si="6"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="X77" s="7"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="1"/>
       <c r="C78" s="7"/>
       <c r="D78" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E78" s="61">
+      <c r="E78" s="9"/>
+      <c r="F78" s="54">
         <v>8</v>
       </c>
-      <c r="F78" s="56">
-        <f t="shared" si="4"/>
+      <c r="G78" s="49">
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G78" s="58"/>
-      <c r="H78" s="11"/>
+      <c r="H78" s="51"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="23"/>
-      <c r="N78" s="12"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="23"/>
       <c r="O78" s="12"/>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
-      <c r="S78" s="44"/>
-      <c r="T78" s="46">
+      <c r="S78" s="12"/>
+      <c r="T78" s="44"/>
+      <c r="U78" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U78" s="23"/>
-      <c r="V78" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W78" s="7"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V78" s="23"/>
+      <c r="W78" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X78" s="7"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="1"/>
       <c r="C79" s="7"/>
       <c r="D79" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E79" s="61">
+      <c r="E79" s="9"/>
+      <c r="F79" s="54">
         <v>8</v>
       </c>
-      <c r="F79" s="56">
-        <f t="shared" si="4"/>
+      <c r="G79" s="49">
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G79" s="58">
-        <v>0.25</v>
-      </c>
-      <c r="H79" s="11"/>
+      <c r="H79" s="51">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="12"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="23"/>
       <c r="O79" s="12"/>
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
       <c r="R79" s="12"/>
-      <c r="S79" s="44"/>
-      <c r="T79" s="46">
+      <c r="S79" s="12"/>
+      <c r="T79" s="44"/>
+      <c r="U79" s="45">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="U79" s="23">
+      <c r="V79" s="23">
         <v>1</v>
       </c>
-      <c r="V79" s="12">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="W79" s="7"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W79" s="12">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X79" s="7"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="1"/>
       <c r="C80" s="7"/>
       <c r="D80" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E80" s="61">
+      <c r="E80" s="9"/>
+      <c r="F80" s="54">
         <v>4</v>
       </c>
-      <c r="F80" s="56">
-        <f t="shared" si="4"/>
+      <c r="G80" s="49">
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G80" s="58"/>
-      <c r="H80" s="11"/>
+      <c r="H80" s="51"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="23"/>
-      <c r="N80" s="12"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="23"/>
       <c r="O80" s="12"/>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
-      <c r="S80" s="44"/>
-      <c r="T80" s="46">
+      <c r="S80" s="12"/>
+      <c r="T80" s="44"/>
+      <c r="U80" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U80" s="23"/>
-      <c r="V80" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W80" s="7"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V80" s="23"/>
+      <c r="W80" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X80" s="7"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="1"/>
       <c r="C81" s="7"/>
       <c r="D81" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E81" s="61">
+      <c r="E81" s="9"/>
+      <c r="F81" s="54">
         <v>6</v>
       </c>
-      <c r="F81" s="56">
-        <f t="shared" si="4"/>
+      <c r="G81" s="49">
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="G81" s="58"/>
-      <c r="H81" s="11"/>
+      <c r="H81" s="51"/>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="12"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="23"/>
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
       <c r="R81" s="12"/>
-      <c r="S81" s="44"/>
-      <c r="T81" s="46">
+      <c r="S81" s="12"/>
+      <c r="T81" s="44"/>
+      <c r="U81" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U81" s="23"/>
-      <c r="V81" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W81" s="7"/>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V81" s="23"/>
+      <c r="W81" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X81" s="7"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="1"/>
       <c r="C82" s="7"/>
       <c r="D82" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E82" s="61">
+      <c r="E82" s="9"/>
+      <c r="F82" s="54">
         <v>8</v>
       </c>
-      <c r="F82" s="56">
-        <f t="shared" si="4"/>
+      <c r="G82" s="49">
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G82" s="58"/>
-      <c r="H82" s="11"/>
+      <c r="H82" s="51"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="12"/>
+      <c r="L82" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M82" s="7"/>
+      <c r="N82" s="23"/>
       <c r="O82" s="12"/>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
-      <c r="S82" s="44"/>
-      <c r="T82" s="46">
+      <c r="S82" s="12"/>
+      <c r="T82" s="44"/>
+      <c r="U82" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U82" s="23"/>
-      <c r="V82" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W82" s="7"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="V82" s="23">
+        <v>2</v>
+      </c>
+      <c r="W82" s="12">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="X82" s="7"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="1"/>
       <c r="C83" s="7"/>
       <c r="D83" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="63">
+      <c r="E83" s="9"/>
+      <c r="F83" s="56">
         <v>4</v>
       </c>
-      <c r="F83" s="56">
-        <f t="shared" si="4"/>
+      <c r="G83" s="49">
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G83" s="58"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="11">
+        <v>0.25</v>
+      </c>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="12"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="23"/>
       <c r="O83" s="12"/>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
-      <c r="S83" s="44"/>
-      <c r="T83" s="46">
+      <c r="S83" s="12"/>
+      <c r="T83" s="44"/>
+      <c r="U83" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U83" s="23"/>
-      <c r="V83" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W83" s="7"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="V83" s="23">
+        <v>2</v>
+      </c>
+      <c r="W83" s="12">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="X83" s="7"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="1"/>
       <c r="C84" s="7"/>
       <c r="D84" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E84" s="63">
+      <c r="E84" s="9"/>
+      <c r="F84" s="56">
         <v>6</v>
       </c>
-      <c r="F84" s="56">
-        <f t="shared" si="4"/>
+      <c r="G84" s="49">
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="G84" s="58"/>
-      <c r="H84" s="11"/>
+      <c r="H84" s="51"/>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="12"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="23"/>
       <c r="O84" s="12"/>
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
       <c r="R84" s="12"/>
-      <c r="S84" s="44"/>
-      <c r="T84" s="46">
+      <c r="S84" s="12"/>
+      <c r="T84" s="44"/>
+      <c r="U84" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U84" s="23"/>
-      <c r="V84" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W84" s="7"/>
-    </row>
-    <row r="85" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V84" s="23"/>
+      <c r="W84" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X84" s="7"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="1"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="11"/>
+      <c r="D85" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="57">
+        <v>6</v>
+      </c>
+      <c r="G85" s="65">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="H85" s="52">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="12"/>
+      <c r="L85" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M85" s="7"/>
+      <c r="N85" s="23"/>
       <c r="O85" s="12"/>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
       <c r="R85" s="12"/>
-      <c r="S85" s="44"/>
-      <c r="T85" s="47">
+      <c r="S85" s="12"/>
+      <c r="T85" s="44"/>
+      <c r="U85" s="45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U85" s="23"/>
-      <c r="V85" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W85" s="7"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="V85" s="23">
+        <v>2</v>
+      </c>
+      <c r="W85" s="12">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="X85" s="7"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
       <c r="B86" s="5"/>
       <c r="C86" s="17"/>
       <c r="D86" s="6"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="6"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="32"/>
       <c r="H86" s="6"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="27"/>
       <c r="K86" s="6"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="14" t="s">
+      <c r="L86" s="6"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O86" s="14" t="s">
+      <c r="P86" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="P86" s="14" t="s">
+      <c r="Q86" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Q86" s="14" t="s">
+      <c r="R86" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="R86" s="14" t="s">
+      <c r="S86" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="S86" s="37"/>
-      <c r="T86" s="48"/>
-      <c r="W86" s="7"/>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T86" s="37"/>
+      <c r="U86" s="7"/>
+      <c r="X86" s="7"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="1"/>
       <c r="C87" s="7"/>
       <c r="D87" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="80"/>
+      <c r="F87" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="22"/>
-      <c r="G87" s="65">
-        <f>SUM(G2:G82)</f>
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="H87" s="12">
-        <f>SUM(H2:H82)</f>
-        <v>4.1666666666666664E-2</v>
+      <c r="G87" s="22"/>
+      <c r="H87" s="58">
+        <f>SUM(H2:H85)</f>
+        <v>1.1354166666666665</v>
       </c>
       <c r="I87" s="12">
-        <f>SUM(I2:I82)</f>
-        <v>4.1666666666666664E-2</v>
+        <f>SUM(I2:I85)</f>
+        <v>0.29166666666666669</v>
       </c>
       <c r="J87" s="12">
-        <f>SUM(J2:J82)</f>
-        <v>4.1666666666666664E-2</v>
+        <f>SUM(J2:J85)</f>
+        <v>0.25</v>
       </c>
       <c r="K87" s="12">
-        <f>SUM(K2:K82)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="L87" s="7"/>
-      <c r="M87" s="23" t="s">
+        <f>SUM(K2:K85)</f>
+        <v>0.27083333333333337</v>
+      </c>
+      <c r="L87" s="12">
+        <f>SUM(L2:L85)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M87" s="7"/>
+      <c r="N87" s="23" t="s">
         <v>11</v>
-      </c>
-      <c r="N87" s="21">
-        <f>COUNTA(N2:N82)</f>
-        <v>0</v>
       </c>
       <c r="O87" s="21">
         <f>COUNTA(O2:O82)</f>
@@ -5610,95 +5838,102 @@
       </c>
       <c r="R87" s="21">
         <f>COUNTA(R2:R82)</f>
-        <v>0</v>
-      </c>
-      <c r="S87" s="26"/>
-      <c r="T87" s="7"/>
-      <c r="W87" s="7"/>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="S87" s="21">
+        <f>COUNTA(S2:S82)</f>
+        <v>0</v>
+      </c>
+      <c r="T87" s="26"/>
+      <c r="U87" s="7"/>
+      <c r="X87" s="7"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="1"/>
       <c r="C88" s="7"/>
       <c r="D88" s="20">
         <f>COUNTA(D2:D82)</f>
-        <v>46</v>
-      </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="66"/>
-      <c r="H88" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="E88" s="20"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="59"/>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="25"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="24"/>
       <c r="O88" s="25"/>
       <c r="P88" s="25"/>
       <c r="Q88" s="25"/>
       <c r="R88" s="25"/>
-      <c r="S88" s="49"/>
-      <c r="T88" s="13"/>
-      <c r="U88" s="6"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="13"/>
       <c r="V88" s="6"/>
-      <c r="W88" s="4"/>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W88" s="6"/>
+      <c r="X88" s="4"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="38" t="s">
         <v>87</v>
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="33" t="s">
+      <c r="E89" s="6"/>
+      <c r="F89" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="22"/>
-      <c r="G89" s="66">
-        <f>SUM(N2:N82)</f>
-        <v>0</v>
-      </c>
-      <c r="H89" s="12">
-        <f>SUM(O2:O82)</f>
+      <c r="G89" s="22"/>
+      <c r="H89" s="59">
+        <f>SUM(O2:O85)</f>
         <v>0</v>
       </c>
       <c r="I89" s="12">
-        <f>SUM(P2:P82)</f>
+        <f>SUM(P2:P85)</f>
         <v>0</v>
       </c>
       <c r="J89" s="12">
-        <f>SUM(Q2:Q82)</f>
+        <f>SUM(Q2:Q85)</f>
         <v>0</v>
       </c>
       <c r="K89" s="12">
-        <f>SUM(R2:R82)</f>
-        <v>0</v>
-      </c>
-      <c r="L89" s="7"/>
-      <c r="M89" s="23"/>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+        <f>SUM(R2:R85)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="L89" s="12">
+        <f>SUM(S2:S85)</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="7"/>
+      <c r="N89" s="23"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="36">
-        <f>SUM(E2:E85)</f>
-        <v>149</v>
-      </c>
-      <c r="E90" s="19"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="12"/>
+        <f>SUM(F2:F85)</f>
+        <v>157</v>
+      </c>
+      <c r="E90" s="81"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="59"/>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="23"/>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L90" s="12"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="23"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="1" t="s">
         <v>71</v>
@@ -5707,17 +5942,18 @@
       <c r="D91" s="36">
         <v>20</v>
       </c>
-      <c r="E91" s="19"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="12"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="59"/>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="23"/>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L91" s="12"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="23"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="1" t="s">
         <v>72</v>
@@ -5725,19 +5961,20 @@
       <c r="C92" s="7"/>
       <c r="D92" s="36">
         <f>SUM(D88*0.75)</f>
-        <v>34.5</v>
-      </c>
-      <c r="E92" s="19"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="12"/>
+        <v>35.25</v>
+      </c>
+      <c r="E92" s="36"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="59"/>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="23"/>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L92" s="12"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="23"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="1" t="s">
         <v>86</v>
@@ -5747,17 +5984,18 @@
         <f>SUM(0.5 * 8 * 5)</f>
         <v>20</v>
       </c>
-      <c r="E93" s="19"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="12"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="60"/>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="23"/>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L93" s="12"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="23"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="1" t="s">
         <v>55</v>
@@ -5767,59 +6005,61 @@
         <f>SUM(6*5)</f>
         <v>30</v>
       </c>
-      <c r="E94" s="34"/>
+      <c r="E94" s="31"/>
       <c r="F94" s="34"/>
-      <c r="G94" s="14" t="s">
+      <c r="G94" s="34"/>
+      <c r="H94" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H94" s="14" t="s">
+      <c r="I94" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="28" t="s">
+      <c r="J94" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="14" t="s">
+      <c r="K94" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="14" t="s">
+      <c r="L94" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L94" s="10"/>
-      <c r="M94" s="23"/>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M94" s="10"/>
+      <c r="N94" s="23"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="38"/>
       <c r="C95" s="18"/>
       <c r="D95" s="35"/>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="79"/>
+      <c r="F95" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="22"/>
-      <c r="G95" s="69">
-        <f>SUM(G87:G93)</f>
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="H95" s="69">
+      <c r="G95" s="22"/>
+      <c r="H95" s="62">
         <f>SUM(H87:H93)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I95" s="69">
+        <v>1.1354166666666665</v>
+      </c>
+      <c r="I95" s="62">
         <f>SUM(I87:I93)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J95" s="69">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="J95" s="62">
         <f>SUM(J87:J93)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="K95" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="K95" s="62">
         <f>SUM(K87:K93)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="L95" s="7"/>
-      <c r="M95" s="23"/>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="L95" s="62">
+        <f>SUM(L87:L93)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M95" s="7"/>
+      <c r="N95" s="23"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="1" t="s">
         <v>74</v>
@@ -5827,242 +6067,396 @@
       <c r="C96" s="7"/>
       <c r="D96" s="20">
         <f>SUM(D90:D94)</f>
-        <v>253.5</v>
-      </c>
-      <c r="E96" s="18"/>
+        <v>262.25</v>
+      </c>
+      <c r="E96" s="80"/>
       <c r="F96" s="18"/>
-      <c r="G96" s="6"/>
+      <c r="G96" s="18"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="23"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L96" s="6"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="23"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="38"/>
       <c r="C97" s="13"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="68"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E97" s="6"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="61"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="78"/>
+    </row>
+    <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="6"/>
+      <c r="H99" s="32"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="42"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="42"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="40" t="s">
+      <c r="H100" s="7"/>
+      <c r="I100" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="I100" s="40" t="s">
+      <c r="J100" s="40" t="s">
         <v>76</v>
-      </c>
-      <c r="J100" s="40" t="s">
-        <v>89</v>
       </c>
       <c r="K100" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="L100" s="7"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L100" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="M100" s="10"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="43">
-        <v>0</v>
-      </c>
-      <c r="I101" s="71">
+      <c r="H101" s="7"/>
+      <c r="I101" s="43">
+        <v>0</v>
+      </c>
+      <c r="J101" s="64">
         <v>280</v>
       </c>
-      <c r="J101" s="52">
-        <v>280</v>
-      </c>
-      <c r="K101" s="40"/>
-      <c r="L101" s="7"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K101" s="66"/>
+      <c r="L101" s="72">
+        <v>0</v>
+      </c>
+      <c r="M101" s="10"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="43">
+      <c r="H102" s="7"/>
+      <c r="I102" s="43">
         <v>1</v>
       </c>
-      <c r="I102" s="52">
+      <c r="J102" s="47">
         <v>245</v>
       </c>
-      <c r="J102" s="52">
-        <v>269</v>
-      </c>
-      <c r="K102" s="50">
-        <f>SUMIF(U2:U85, "1", V2:V85)</f>
+      <c r="K102" s="67">
+        <f>SUMIF(V2:V85, "1", W2:W85)</f>
+        <v>0.52083333333333326</v>
+      </c>
+      <c r="L102" s="70">
         <v>0.5</v>
       </c>
-      <c r="L102" s="7"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M102" s="10"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="I103" s="53">
+      <c r="H103" s="7"/>
+      <c r="I103" s="77">
+        <v>2</v>
+      </c>
+      <c r="J103" s="48">
         <f>SUM(245-35)</f>
         <v>210</v>
       </c>
-      <c r="J103" s="54"/>
-      <c r="K103" s="50">
-        <f>SUMIF(U2:U85, "2", V2:V85)</f>
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="L103" s="7"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K103" s="67">
+        <f>SUMIF(V2:V85, "2", W2:W85)</f>
+        <v>1.3125</v>
+      </c>
+      <c r="L103" s="70">
+        <v>1.3125</v>
+      </c>
+      <c r="M103" s="10"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="41" t="s">
+      <c r="H104" s="7"/>
+      <c r="I104" s="77">
+        <v>3</v>
+      </c>
+      <c r="J104" s="48">
+        <f t="shared" ref="J104:J109" si="8">SUM(J103-35)</f>
+        <v>175</v>
+      </c>
+      <c r="K104" s="67">
+        <f>SUMIF(V2:V85, "3", W2:W85)</f>
+        <v>0.38541666666666663</v>
+      </c>
+      <c r="L104" s="70"/>
+      <c r="M104" s="10"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B105" s="1"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="77">
+        <v>4</v>
+      </c>
+      <c r="J105" s="48">
+        <f t="shared" si="8"/>
+        <v>140</v>
+      </c>
+      <c r="K105" s="67">
+        <f>SUMIF(V2:V85, "4", W2:W85)</f>
+        <v>0</v>
+      </c>
+      <c r="L105" s="70"/>
+      <c r="M105" s="10"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H106" s="7"/>
+      <c r="I106" s="77">
+        <v>5</v>
+      </c>
+      <c r="J106" s="48">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+      <c r="K106" s="67">
+        <f>SUMIF(V2:V85, "5", W2:W85)</f>
+        <v>0</v>
+      </c>
+      <c r="L106" s="70"/>
+      <c r="M106" s="10"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H107" s="7"/>
+      <c r="I107" s="77">
+        <v>6</v>
+      </c>
+      <c r="J107" s="48">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="K107" s="67">
+        <f>SUMIF(V2:V85, "6", W2:W85)</f>
+        <v>0</v>
+      </c>
+      <c r="L107" s="70"/>
+      <c r="M107" s="10"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H108" s="7"/>
+      <c r="I108" s="77">
+        <v>7</v>
+      </c>
+      <c r="J108" s="48">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="K108" s="67">
+        <f>SUMIF(V2:V85, "7", W2:W85)</f>
+        <v>0</v>
+      </c>
+      <c r="L108" s="70"/>
+      <c r="M108" s="10"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H109" s="7"/>
+      <c r="I109" s="77">
+        <v>8</v>
+      </c>
+      <c r="J109" s="48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="67">
+        <f>SUMIF(V2:V85, "8", W2:W85)</f>
+        <v>0</v>
+      </c>
+      <c r="L109" s="70"/>
+      <c r="M109" s="10"/>
+    </row>
+    <row r="110" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H110" s="7"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="48"/>
+      <c r="K110" s="68"/>
+      <c r="L110" s="71"/>
+      <c r="M110" s="10"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H111" s="13"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="63"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
+      <c r="L112" s="39"/>
+    </row>
+    <row r="113" spans="8:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H113" s="32"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="42"/>
+    </row>
+    <row r="114" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H114" s="7"/>
+      <c r="I114" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J114" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="K114" s="84"/>
+      <c r="L114" s="73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H115" s="7"/>
+      <c r="I115" s="43">
+        <v>0</v>
+      </c>
+      <c r="J115" s="82">
+        <f>SUMIF(V2:V85, "0", G2:G85)</f>
+        <v>0</v>
+      </c>
+      <c r="K115" s="83"/>
+      <c r="L115" s="76">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="116" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H116" s="7"/>
+      <c r="I116" s="43">
+        <v>1</v>
+      </c>
+      <c r="J116" s="82">
+        <f>SUMIF(V2:V85, "1", G2:G85)</f>
+        <v>0.625</v>
+      </c>
+      <c r="K116" s="83"/>
+      <c r="L116" s="76">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="117" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H117" s="7"/>
+      <c r="I117" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="J117" s="82">
+        <f>SUMIF(V2:V85, "2", G2:G85)</f>
+        <v>1.9583333333333333</v>
+      </c>
+      <c r="K117" s="83"/>
+      <c r="L117" s="76">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H118" s="7"/>
+      <c r="I118" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="I104" s="53">
-        <f t="shared" ref="I104:I110" si="6">SUM(I103-35)</f>
-        <v>175</v>
-      </c>
-      <c r="J104" s="54"/>
-      <c r="K104" s="50">
-        <f>SUMIF(U2:U85, "3", V2:V85)</f>
-        <v>0</v>
-      </c>
-      <c r="L104" s="7"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B105" s="1"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="41" t="s">
+      <c r="J118" s="82">
+        <f>SUMIF(V2:V85, "3", G2:G85)</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="K118" s="83"/>
+      <c r="L118" s="76"/>
+    </row>
+    <row r="119" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H119" s="7"/>
+      <c r="I119" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="I105" s="53">
-        <f t="shared" si="6"/>
-        <v>140</v>
-      </c>
-      <c r="J105" s="54"/>
-      <c r="K105" s="50">
-        <f>SUMIF(U2:U85, "4", V2:V85)</f>
-        <v>0</v>
-      </c>
-      <c r="L105" s="7"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G106" s="7"/>
-      <c r="H106" s="41" t="s">
+      <c r="J119" s="82">
+        <f>SUMIF(V2:V85, "4", G2:G85)</f>
+        <v>0</v>
+      </c>
+      <c r="K119" s="83"/>
+      <c r="L119" s="76"/>
+    </row>
+    <row r="120" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H120" s="7"/>
+      <c r="I120" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I106" s="53">
-        <f t="shared" si="6"/>
-        <v>105</v>
-      </c>
-      <c r="J106" s="54"/>
-      <c r="K106" s="50">
-        <f>SUMIF(U2:U85, "5", V2:V85)</f>
-        <v>0</v>
-      </c>
-      <c r="L106" s="7"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G107" s="7"/>
-      <c r="H107" s="41" t="s">
+      <c r="J120" s="82">
+        <f>SUMIF(V2:V85, "5", G2:G85)</f>
+        <v>0</v>
+      </c>
+      <c r="K120" s="83"/>
+      <c r="L120" s="76"/>
+    </row>
+    <row r="121" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H121" s="7"/>
+      <c r="I121" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I107" s="53">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="J107" s="54"/>
-      <c r="K107" s="50">
-        <f>SUMIF(U2:U85, "6", V2:V85)</f>
-        <v>0</v>
-      </c>
-      <c r="L107" s="7"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G108" s="7"/>
-      <c r="H108" s="41" t="s">
+      <c r="J121" s="82">
+        <f>SUMIF(V2:V85, "6", G2:G85)</f>
+        <v>0</v>
+      </c>
+      <c r="K121" s="83"/>
+      <c r="L121" s="76"/>
+    </row>
+    <row r="122" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H122" s="7"/>
+      <c r="I122" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I108" s="53">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="J108" s="54"/>
-      <c r="K108" s="50">
-        <f>SUMIF(U2:U85, "7", V2:V85)</f>
-        <v>0</v>
-      </c>
-      <c r="L108" s="7"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G109" s="7"/>
-      <c r="H109" s="41" t="s">
+      <c r="J122" s="82">
+        <f>SUMIF(V2:V85, "7", G2:G85)</f>
+        <v>0</v>
+      </c>
+      <c r="K122" s="83"/>
+      <c r="L122" s="76"/>
+    </row>
+    <row r="123" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H123" s="7"/>
+      <c r="I123" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="I109" s="53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="54"/>
-      <c r="K109" s="50">
-        <f>SUMIF(U2:U85, "8", V2:V85)</f>
-        <v>0</v>
-      </c>
-      <c r="L109" s="7"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G110" s="7"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="53"/>
-      <c r="J110" s="55"/>
-      <c r="K110" s="51"/>
-      <c r="L110" s="7"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G111" s="13"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
-      <c r="K112" s="39"/>
-    </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G113" s="39"/>
-      <c r="H113" s="39"/>
+      <c r="J123" s="82">
+        <f>SUMIF(V2:V85, "8", G2:G85)</f>
+        <v>0</v>
+      </c>
+      <c r="K123" s="83"/>
+      <c r="L123" s="76"/>
+    </row>
+    <row r="124" spans="8:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H124" s="7"/>
+      <c r="I124" s="41"/>
+      <c r="L124" s="74"/>
+    </row>
+    <row r="125" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H125" s="13"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="75"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="T2:T85">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+  <mergeCells count="10">
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="J122:K122"/>
+  </mergeCells>
+  <conditionalFormatting sqref="U2:U85">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>COUNTA(O2:S2) &gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B85">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6073,12 +6467,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U85">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>COUNTA(O2:S2) =0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E85">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>COUNTA(H2:L2) &gt;=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>COUNTA(H2:L2) =0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="T2 T3:T81 T82:T84" formulaRange="1"/>
-    <ignoredError sqref="H103:H109" numberStoredAsText="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>